--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Appx Shipping + Tax </t>
   </si>
   <si>
-    <t>Misc (Jumpers, heat shrink, etc.)</t>
-  </si>
-  <si>
     <t>Actual Total</t>
   </si>
   <si>
@@ -205,6 +202,21 @@
   </si>
   <si>
     <t>Posi-Lock</t>
+  </si>
+  <si>
+    <t>RAM Mount Steel U-Bolt Rail Base with Short Arm Diamond Assembly</t>
+  </si>
+  <si>
+    <t>RAM Mount Hardware for Cradles</t>
+  </si>
+  <si>
+    <t>SKU:RAMSHOL</t>
+  </si>
+  <si>
+    <t>SKU:RAMB149-A</t>
+  </si>
+  <si>
+    <t>GPSCity</t>
   </si>
 </sst>
 </file>
@@ -215,7 +227,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +274,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,6 +379,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,15 +685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
@@ -1256,10 +1285,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="21">
         <v>1</v>
@@ -1277,10 +1306,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="21">
         <v>1</v>
@@ -1298,10 +1327,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="D29" s="6">
         <v>3</v>
@@ -1324,7 +1353,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -1337,30 +1366,77 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="A32" s="7">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
+        <v>27.95</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" ref="F32:F33" si="11">D32*E32</f>
+        <v>27.95</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="11"/>
+        <v>2.8</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="F34" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="19">
-        <f>SUM(F32:F33)+F31</f>
-        <v>140.32000000000002</v>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="19">
+        <f>SUM(F32:F35)+F31</f>
+        <v>171.07000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -195,12 +195,6 @@
     <t>ebay</t>
   </si>
   <si>
-    <t>Neoprene</t>
-  </si>
-  <si>
-    <t>Posi-Locks</t>
-  </si>
-  <si>
     <t>Posi-Lock</t>
   </si>
   <si>
@@ -217,6 +211,18 @@
   </si>
   <si>
     <t>GPSCity</t>
+  </si>
+  <si>
+    <t>Misc - wires, lead, etc.</t>
+  </si>
+  <si>
+    <t>Posi-Locks - 18-24 AWG (RED)</t>
+  </si>
+  <si>
+    <t>http://www.posi-lock.com/lock2.html</t>
+  </si>
+  <si>
+    <t>Neoprene Sheet</t>
   </si>
 </sst>
 </file>
@@ -238,13 +244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,6 +286,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,45 +351,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,9 +707,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -728,695 +739,708 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
         <v>27</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>D3*E3</f>
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
         <v>0.32</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F12" si="0">D4*E4</f>
         <v>0.32</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.59</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>1.89</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>1.89</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
         <v>0.45</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>D7*E7</f>
         <v>0.45</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.45</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>0.31</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.18</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.23</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.53</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.4</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" ref="F13" si="1">D13*E13</f>
         <v>0.8</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>1.86</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" ref="F14" si="2">D14*E14</f>
         <v>1.86</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <v>19.95</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" ref="F15" si="3">D15*E15</f>
         <v>19.95</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
         <v>4.76</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" ref="F16" si="4">D16*E16</f>
         <v>4.76</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <v>6.52</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" ref="F17" si="5">D17*E17</f>
         <v>6.52</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>5.12</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" ref="F18" si="6">D18*E18</f>
         <v>5.12</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>3.93</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" ref="F19:F23" si="7">D19*E19</f>
         <v>3.93</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>14.95</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f t="shared" si="7"/>
         <v>14.95</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.15</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0.15</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
         <v>0.15</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
         <v>0.15</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f t="shared" ref="F24" si="8">D24*E24</f>
         <v>0.15</v>
       </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>0.15</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" ref="F25" si="9">D25*E25</f>
         <v>0.15</v>
       </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.15</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" ref="F26:F29" si="10">D26*E26</f>
         <v>0.3</v>
       </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
         <v>5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
         <v>5</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="B29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="G29" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4">
         <f>SUM(F3:F29)</f>
         <v>105.32000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1</v>
-      </c>
-      <c r="E32" s="26">
+      <c r="B32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24">
         <v>27.95</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <f t="shared" ref="F32:F33" si="11">D32*E32</f>
         <v>27.95</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>66</v>
+      <c r="G32" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="25">
-        <v>1</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="B33" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
         <v>2.8</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>66</v>
+      <c r="G33" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="F34" s="18">
+      <c r="A34" s="6">
+        <v>30</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="F34" s="16">
         <v>15</v>
       </c>
     </row>
@@ -1424,17 +1448,17 @@
       <c r="C35" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="19">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17">
         <f>SUM(F32:F35)+F31</f>
         <v>171.07000000000002</v>
       </c>
@@ -1443,9 +1467,10 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G20" r:id="rId2"/>
+    <hyperlink ref="G29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="11475" windowHeight="5445"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="11475" windowHeight="5445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gen1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gen2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -223,6 +222,57 @@
   </si>
   <si>
     <t>Neoprene Sheet</t>
+  </si>
+  <si>
+    <t>GEN2</t>
+  </si>
+  <si>
+    <t>Arduino Mini Pro</t>
+  </si>
+  <si>
+    <t>http://www.sparkfun.com/products/11113</t>
+  </si>
+  <si>
+    <t>http://www.sparkfun.com/products/9716</t>
+  </si>
+  <si>
+    <t>FTDI Basic Breakout - 5V</t>
+  </si>
+  <si>
+    <t>LM2940 5V REGULATOR</t>
+  </si>
+  <si>
+    <t>DIGIKEY: LM2940T-5.0-ND</t>
+  </si>
+  <si>
+    <t>DS18B20 I2C Temp Sensor</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6#ht_2092wt_1163</t>
+  </si>
+  <si>
+    <t>Radio Shack</t>
+  </si>
+  <si>
+    <t>Mini through board</t>
+  </si>
+  <si>
+    <t>Battery Voltage Div Resistor 1 - MilSpec</t>
+  </si>
+  <si>
+    <t>Battery Voltage Div Resistor 2 - MilSpec</t>
+  </si>
+  <si>
+    <t>Gear Voltage Div Resistors - MilSpec</t>
+  </si>
+  <si>
+    <t>I2C LCD Display (16x2)</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d#ht_3637wt_1163</t>
+  </si>
+  <si>
+    <t>Screws</t>
   </si>
 </sst>
 </file>
@@ -233,7 +283,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +348,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -353,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -388,6 +445,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,24 +1536,708 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>18.95</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D3*E3</f>
+        <v>18.95</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F28" si="0">D4*E4</f>
+        <v>15</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.89</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8" si="1">D8*E8</f>
+        <v>1.89</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="8">
+        <f>D9*E9</f>
+        <v>0.45</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.52</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>6.52</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="19">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4">
+        <f>SUM(F3:F28)</f>
+        <v>78.450000000000017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="22"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17">
+        <f>SUM(F30:F33)+F29</f>
+        <v>78.450000000000017</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G27" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="H18" r:id="rId4" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
+    <hyperlink ref="H17" r:id="rId5" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="11475" windowHeight="5445" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -233,12 +233,6 @@
     <t>http://www.sparkfun.com/products/11113</t>
   </si>
   <si>
-    <t>http://www.sparkfun.com/products/9716</t>
-  </si>
-  <si>
-    <t>FTDI Basic Breakout - 5V</t>
-  </si>
-  <si>
     <t>LM2940 5V REGULATOR</t>
   </si>
   <si>
@@ -251,28 +245,103 @@
     <t>http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6#ht_2092wt_1163</t>
   </si>
   <si>
-    <t>Radio Shack</t>
-  </si>
-  <si>
-    <t>Mini through board</t>
-  </si>
-  <si>
-    <t>Battery Voltage Div Resistor 1 - MilSpec</t>
-  </si>
-  <si>
-    <t>Battery Voltage Div Resistor 2 - MilSpec</t>
-  </si>
-  <si>
-    <t>Gear Voltage Div Resistors - MilSpec</t>
-  </si>
-  <si>
     <t>I2C LCD Display (16x2)</t>
   </si>
   <si>
     <t>http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d#ht_3637wt_1163</t>
   </si>
   <si>
-    <t>Screws</t>
+    <t>Schematic Name</t>
+  </si>
+  <si>
+    <t>Din</t>
+  </si>
+  <si>
+    <t>Nano1</t>
+  </si>
+  <si>
+    <t>Rin</t>
+  </si>
+  <si>
+    <t>LM2940</t>
+  </si>
+  <si>
+    <t>Cin1</t>
+  </si>
+  <si>
+    <t>Cin2</t>
+  </si>
+  <si>
+    <t>Cout</t>
+  </si>
+  <si>
+    <t>Led6</t>
+  </si>
+  <si>
+    <t>Led1</t>
+  </si>
+  <si>
+    <t>Led2, Led3</t>
+  </si>
+  <si>
+    <t>Led4, Led5</t>
+  </si>
+  <si>
+    <t>Cds</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Rcds</t>
+  </si>
+  <si>
+    <t>Rgps1, Rgps2</t>
+  </si>
+  <si>
+    <t>Rbatt1</t>
+  </si>
+  <si>
+    <t>Rbatt2</t>
+  </si>
+  <si>
+    <t>Rled1 .. Rled6</t>
+  </si>
+  <si>
+    <t>http://www.radioshack.com/product/index.jsp?productId=2102845</t>
+  </si>
+  <si>
+    <t>Radio shack PCB 417 Holes</t>
+  </si>
+  <si>
+    <t>Model: 276-150  | Catalog #: 276-150</t>
+  </si>
+  <si>
+    <t>DIGIKEY: CMF499KHBCT-ND</t>
+  </si>
+  <si>
+    <t>Gear Voltage Div Resistors - MilSpec - 499KOhm</t>
+  </si>
+  <si>
+    <t>DIGIKEY: CMF953KHBCT-ND</t>
+  </si>
+  <si>
+    <t>DIGIKEY: CMF332KHBCT-ND</t>
+  </si>
+  <si>
+    <t>Battery Voltage Div Resistor 2 - MilSpec - 953KOhm</t>
+  </si>
+  <si>
+    <t>Battery Voltage Div Resistor 1 - MilSpec - 332KOhm</t>
+  </si>
+  <si>
+    <t>PhotoCell Voltage Divider Resistor - 10KOhm, 1/8W</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>*Generic</t>
   </si>
 </sst>
 </file>
@@ -349,11 +418,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -410,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -445,9 +513,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -752,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B34" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,23 +1603,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1560,12 +1628,13 @@
       <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1573,671 +1642,674 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
         <v>18.95</v>
       </c>
-      <c r="F3" s="8">
-        <f>D3*E3</f>
+      <c r="G3" s="8">
+        <f>E3*F3</f>
         <v>18.95</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F28" si="0">D4*E4</f>
-        <v>15</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>72</v>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G25" si="0">E4*F4</f>
+        <v>0.32</v>
       </c>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.32</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
         <v>0.59</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6" si="1">E6*F6</f>
+        <v>1.89</v>
+      </c>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>1.89</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="G7" s="8">
+        <f>E7*F7</f>
+        <v>0.45</v>
+      </c>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8" si="1">D8*E8</f>
-        <v>1.89</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
         <v>0.45</v>
       </c>
-      <c r="F9" s="8">
-        <f>D9*E9</f>
-        <v>0.45</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.31</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G10" s="8">
+        <f>E10*F10</f>
+        <v>0.23</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="8">
+        <f>E11*F11</f>
+        <v>0.8</v>
+      </c>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.18</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
         <v>0.53</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="G13" s="8">
+        <f>E13*F13</f>
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
         <v>1.86</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>1.86</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="8">
+        <f>E15*F15</f>
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <f>E16*F16</f>
+        <v>2</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="10">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="8">
+        <f>E17*F17</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G19" si="2">E18*F18</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
         <v>12</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="H20" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
         <v>1.6</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="H21" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="8">
+        <f>E22*F22</f>
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
         <v>6.52</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>6.52</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10">
-        <v>6</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
+      <c r="B24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="19">
+        <v>3</v>
       </c>
       <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="B25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="12">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="19">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4">
-        <f>SUM(F3:F28)</f>
-        <v>78.450000000000017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="22"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4">
+        <f>SUM(G3:G25)</f>
+        <v>58.04999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17">
-        <f>SUM(F30:F33)+F29</f>
-        <v>78.450000000000017</v>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="17">
+        <f>SUM(G27:G30)+G26</f>
+        <v>58.04999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="H18" r:id="rId4" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
-    <hyperlink ref="H17" r:id="rId5" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H21" r:id="rId3" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
+    <hyperlink ref="H20" r:id="rId4" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>*Generic</t>
+  </si>
+  <si>
+    <t>16 Ohm current limiter</t>
+  </si>
+  <si>
+    <t>OneWire Pull Up Resistor - 4.7KOhm, 1/8W</t>
+  </si>
+  <si>
+    <t>Rpullup</t>
   </si>
 </sst>
 </file>
@@ -820,7 +829,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1615,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>81</v>
@@ -2159,21 +2168,23 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" s="15" t="s">
         <v>108</v>
       </c>
       <c r="E22" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="8">
         <v>0.15</v>
       </c>
       <c r="G22" s="8">
         <f>E22*F22</f>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2258,7 +2269,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4">
         <f>SUM(G3:G25)</f>
-        <v>58.04999999999999</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2299,7 +2310,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="17">
         <f>SUM(G27:G30)+G26</f>
-        <v>58.04999999999999</v>
+        <v>57.9</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -227,12 +227,6 @@
     <t>GEN2</t>
   </si>
   <si>
-    <t>Arduino Mini Pro</t>
-  </si>
-  <si>
-    <t>http://www.sparkfun.com/products/11113</t>
-  </si>
-  <si>
     <t>LM2940 5V REGULATOR</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>Schematic Name</t>
   </si>
   <si>
-    <t>Din</t>
-  </si>
-  <si>
     <t>Nano1</t>
   </si>
   <si>
@@ -350,7 +341,10 @@
     <t>OneWire Pull Up Resistor - 4.7KOhm, 1/8W</t>
   </si>
   <si>
-    <t>Rpullup</t>
+    <t>Ronewire</t>
+  </si>
+  <si>
+    <t>Arduino Nano V3 (or compatible)</t>
   </si>
 </sst>
 </file>
@@ -1612,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" activeCellId="1" sqref="H19 H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1675,119 +1669,117 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>18.95</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8">
         <f>E3*F3</f>
-        <v>18.95</v>
+        <v>10</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.32</v>
+        <v>78</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.59</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G25" si="0">E4*F4</f>
-        <v>0.32</v>
+        <f t="shared" ref="G4:G24" si="0">E4*F4</f>
+        <v>0.59</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>0.59</v>
+        <v>1.89</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59</v>
+        <f t="shared" ref="G5" si="1">E5*F5</f>
+        <v>1.89</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1.89</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.45</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6" si="1">E6*F6</f>
-        <v>1.89</v>
+        <f>E6*F6</f>
+        <v>0.45</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1796,7 +1788,7 @@
         <v>0.45</v>
       </c>
       <c r="G7" s="8">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
       <c r="H7" s="6"/>
@@ -1804,275 +1796,274 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.45</v>
+      <c r="F8" s="8">
+        <v>0.31</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="8">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.31</v>
+        <f>E9*F9</f>
+        <v>0.23</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="8">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="8">
         <f>E10*F10</f>
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
       </c>
       <c r="F11" s="8">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="G11" s="8">
-        <f>E11*F11</f>
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>1.06</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.53</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.18</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>1.06</v>
+        <f>E12*F12</f>
+        <v>0.18</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
-        <v>0.18</v>
+      <c r="F13" s="8">
+        <v>1.86</v>
       </c>
       <c r="G13" s="8">
-        <f>E13*F13</f>
-        <v>0.18</v>
+        <f t="shared" si="0"/>
+        <v>1.86</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10">
+        <v>105</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
       <c r="F14" s="8">
-        <v>1.86</v>
+        <v>0.15</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.86</v>
+        <f>E14*F14</f>
+        <v>0.15</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="8">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <f>E15*F15</f>
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="E16" s="10">
+        <v>6</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G16" s="8">
         <f>E16*F16</f>
-        <v>2</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="10">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
       </c>
       <c r="F17" s="8">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
-        <f>E17*F17</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="G17:G18" si="2">E17*F17</f>
+        <v>1</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -2081,201 +2072,186 @@
         <v>1</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G19" si="2">E18*F18</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="6"/>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="8">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="D21" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="10">
+        <v>105</v>
+      </c>
+      <c r="E21" s="12">
         <v>1</v>
       </c>
       <c r="F21" s="8">
-        <v>1.6</v>
+        <v>0.15</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>75</v>
-      </c>
+        <f>E21*F21</f>
+        <v>0.15</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="12">
+        <v>32</v>
+      </c>
+      <c r="E22" s="10">
         <v>1</v>
       </c>
       <c r="F22" s="8">
-        <v>0.15</v>
+        <v>6.52</v>
       </c>
       <c r="G22" s="8">
-        <f>E22*F22</f>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>6.52</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="19">
+        <v>3</v>
       </c>
       <c r="F23" s="8">
-        <v>6.52</v>
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>6.52</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="19">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>2.4900000000000002</v>
       </c>
-      <c r="H25" t="s">
-        <v>97</v>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4">
+        <f>SUM(G3:G24)</f>
+        <v>46.63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4">
-        <f>SUM(G3:G25)</f>
-        <v>57.9</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -2286,41 +2262,30 @@
       <c r="A28" s="6"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="22"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="22"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17">
-        <f>SUM(G27:G30)+G26</f>
-        <v>57.9</v>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="17">
+        <f>SUM(G26:G29)+G25</f>
+        <v>46.63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H21" r:id="rId3" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
-    <hyperlink ref="H20" r:id="rId4" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
+    <hyperlink ref="H23" r:id="rId1"/>
+    <hyperlink ref="H20" r:id="rId2" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
+    <hyperlink ref="H19" r:id="rId3" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="11475" windowHeight="5445" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="11475" windowHeight="5385"/>
   </bookViews>
   <sheets>
-    <sheet name="Gen1" sheetId="1" r:id="rId1"/>
-    <sheet name="Gen2" sheetId="2" r:id="rId2"/>
+    <sheet name="Gen2" sheetId="2" r:id="rId1"/>
+    <sheet name="Gen1 (OBSOLETE)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -345,6 +345,126 @@
   </si>
   <si>
     <t>Arduino Nano V3 (or compatible)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ERG-3SJ160/P16W-3BK-ND/36658</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=LM2940T-5.0-ND&amp;x=21&amp;y=17&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?vendor=0&amp;keywords=P5541-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=445-2870-ND&amp;x=20&amp;y=15&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=P12927-ND&amp;x=21&amp;y=21&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Temp Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeasureBattery </t>
+  </si>
+  <si>
+    <t>Photo Cell</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C503B-GCN-CY0C0791/C503B-GCN-CY0C0791-ND/1922940</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en/optoelectronics/leds-discrete/524729?k=67-1117-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=C503B-WAN-CCACB151-ND&amp;x=11&amp;y=13&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C503B-BCS-CV0Z0461/C503B-BCS-CV0Z0461-ND/1922944</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CMF55499K00BEEB/CMF499KHBCT-ND/2197183</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CMF55332K00BEEB/CMF332KHBCT-ND/2197180</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/CMF55953K00BEEB/CMF953KHBCT-ND/2197185</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=PDV-P8001-ND&amp;x=17&amp;y=15&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=HM1038-ND&amp;x=15&amp;y=14&amp;cur=USD</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Measures ambient light to control brightness of backlit LCD display and LEDs</t>
+  </si>
+  <si>
+    <t>Circuit board to connect everything together.</t>
+  </si>
+  <si>
+    <t>Brain - Microcontroller</t>
+  </si>
+  <si>
+    <t>Part of 12V-&gt;5V power regulator</t>
+  </si>
+  <si>
+    <t>Gear Position indicator</t>
+  </si>
+  <si>
+    <t>Limit current of Gear Position indicator LEDs</t>
+  </si>
+  <si>
+    <t>Main Display</t>
+  </si>
+  <si>
+    <t>Digital Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Enclosure (Box) to hold all components</t>
+  </si>
+  <si>
+    <t>Part of gear  voltage meter circuit</t>
+  </si>
+  <si>
+    <t>Part of PhotoCell circuit</t>
+  </si>
+  <si>
+    <t>Part of battery voltage meter circuit</t>
+  </si>
+  <si>
+    <t>Part of digital temperature sensor circuit</t>
+  </si>
+  <si>
+    <t>Optional - used to connect/disconnect wires quickly without soldering</t>
+  </si>
+  <si>
+    <t>Posi-Tap - 16-18 AWG (BLUE)</t>
+  </si>
+  <si>
+    <t>Posi-Tap</t>
+  </si>
+  <si>
+    <t>Optional - used to tap into the V-Strom  GPS (the pink wire)</t>
+  </si>
+  <si>
+    <t>Note that these are only necessary if you want to color code your gears.  If you want to have the same color for all gears then get all the same color LEDs.</t>
+  </si>
+  <si>
+    <t>http://www.posi-lock.com/posiplug.html</t>
+  </si>
+  <si>
+    <t>Note that posi-lock products come in packages. Try to find cheaper single distributions, or buy with other stromtroopers are share the cost</t>
   </si>
 </sst>
 </file>
@@ -355,7 +475,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +546,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +576,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -518,6 +657,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,6 +979,898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
+        <f>F3*G3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H25" si="0">F4*G4</f>
+        <v>0.59</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5" si="1">F5*G5</f>
+        <v>1.89</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="8">
+        <f>F6*G6</f>
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="33">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="H9" s="8">
+        <f>F9*G9</f>
+        <v>0.23</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33">
+        <v>9</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="8">
+        <f>F10*G10</f>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33">
+        <v>11</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="H12" s="8">
+        <f>F12*G12</f>
+        <v>0.18</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33">
+        <v>12</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="8">
+        <f>F13*G13</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="8">
+        <f>F15*G15</f>
+        <v>0.15</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
+        <v>15</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <f>F16*G16</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="37">
+        <v>16</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17:H18" si="2">F17*G17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="37">
+        <v>17</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="33">
+        <v>18</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H21" s="8">
+        <f>F21*G21</f>
+        <v>0.15</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6.52</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>6.52</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" ref="H23" si="3">F23*G23</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4">
+        <f>SUM(H3:H25)</f>
+        <v>48.63</v>
+      </c>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="22"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E31" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17">
+        <f>SUM(H27:H30)+H26</f>
+        <v>48.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M9:Q12"/>
+    <mergeCell ref="Q23:U26"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I20" r:id="rId1" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
+    <hyperlink ref="I19" r:id="rId2" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I25" r:id="rId8"/>
+    <hyperlink ref="I14" r:id="rId9"/>
+    <hyperlink ref="I16" r:id="rId10"/>
+    <hyperlink ref="I17" r:id="rId11"/>
+    <hyperlink ref="I18" r:id="rId12"/>
+    <hyperlink ref="I22" r:id="rId13"/>
+    <hyperlink ref="I12" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="I10" r:id="rId16"/>
+    <hyperlink ref="I11" r:id="rId17"/>
+    <hyperlink ref="I23" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -921,7 +1972,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -1602,690 +2653,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" activeCellId="1" sqref="H19 H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8">
-        <f>E3*F3</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G24" si="0">E4*F4</f>
-        <v>0.59</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" ref="G5" si="1">E5*F5</f>
-        <v>1.89</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="G6" s="8">
-        <f>E6*F6</f>
-        <v>0.45</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.31</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="G9" s="8">
-        <f>E9*F9</f>
-        <v>0.23</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="8">
-        <f>E10*F10</f>
-        <v>0.8</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.06</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="G12" s="8">
-        <f>E12*F12</f>
-        <v>0.18</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.86</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>1.86</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="8">
-        <f>E14*F14</f>
-        <v>0.15</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <f>E15*F15</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="10">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G16" s="8">
-        <f>E16*F16</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" ref="G17:G18" si="2">E17*F17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="8">
-        <f>E21*F21</f>
-        <v>0.15</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <v>6.52</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="0"/>
-        <v>6.52</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="19">
-        <v>3</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4">
-        <f>SUM(G3:G24)</f>
-        <v>46.63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="22"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="17">
-        <f>SUM(G26:G29)+G25</f>
-        <v>46.63</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H23" r:id="rId1"/>
-    <hyperlink ref="H20" r:id="rId2" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
-    <hyperlink ref="H19" r:id="rId3" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
 </file>
--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="11475" windowHeight="5385"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="11475" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Gen2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Temp Sensor</t>
   </si>
   <si>
-    <t xml:space="preserve">MeasureBattery </t>
-  </si>
-  <si>
     <t>Photo Cell</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
     <t>Part of battery voltage meter circuit</t>
   </si>
   <si>
-    <t>Part of digital temperature sensor circuit</t>
-  </si>
-  <si>
     <t>Optional - used to connect/disconnect wires quickly without soldering</t>
   </si>
   <si>
@@ -465,6 +459,36 @@
   </si>
   <si>
     <t>Note that posi-lock products come in packages. Try to find cheaper single distributions, or buy with other stromtroopers are share the cost</t>
+  </si>
+  <si>
+    <t>Part of digital temperature sensor circuit, pulls up the OneWire line</t>
+  </si>
+  <si>
+    <t>Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Ri2c</t>
+  </si>
+  <si>
+    <t>Pulls up the LCD I2C SDA and SCL lines</t>
+  </si>
+  <si>
+    <t>I2C Pull Up Resistors - 4.7KOhm, 1/8W</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure Battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Gear </t>
   </si>
 </sst>
 </file>
@@ -620,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -656,16 +680,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +691,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -979,14 +1003,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.85546875" customWidth="1"/>
@@ -1036,14 +1061,17 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1064,11 +1092,11 @@
         <v>58</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="6">
@@ -1090,18 +1118,18 @@
         <v>0.59</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H25" si="0">F4*G4</f>
+        <f t="shared" ref="H4:H26" si="0">F4*G4</f>
         <v>0.59</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>110</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -1128,11 +1156,11 @@
         <v>111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -1159,11 +1187,11 @@
         <v>112</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -1190,11 +1218,11 @@
         <v>113</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -1221,17 +1249,17 @@
         <v>114</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -1251,25 +1279,25 @@
         <v>0.23</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33">
+      <c r="A10" s="37"/>
+      <c r="B10" s="29">
         <v>9</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -1289,23 +1317,23 @@
         <v>0.8</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33">
+      <c r="A11" s="37"/>
+      <c r="B11" s="29">
         <v>10</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -1325,23 +1353,23 @@
         <v>1.06</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33">
+      <c r="A12" s="37"/>
+      <c r="B12" s="29">
         <v>11</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -1361,23 +1389,23 @@
         <v>0.18</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33">
+      <c r="A13" s="37"/>
+      <c r="B13" s="29">
         <v>12</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1398,12 +1426,12 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>119</v>
+      <c r="A14" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -1428,14 +1456,14 @@
         <v>1.86</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -1460,14 +1488,17 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="A16" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="29">
         <v>15</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="32" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -1487,20 +1518,20 @@
         <v>2</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="37">
+      <c r="A17" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="33">
         <v>16</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -1520,18 +1551,18 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="37">
+      <c r="A18" s="36"/>
+      <c r="B18" s="33">
         <v>17</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -1551,20 +1582,20 @@
         <v>1</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="29">
         <v>18</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1587,226 +1618,255 @@
         <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="29">
+        <v>19</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="8">
+        <f>F20*G20</f>
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="6">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15" t="s">
+      <c r="D21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>1.6</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I21" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H21" s="8">
-        <f>F21*G21</f>
-        <v>0.15</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
-        <v>142</v>
+      <c r="J21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H22" s="8">
+        <f>F22*G22</f>
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="29">
+        <v>22</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="15" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
         <v>6.52</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <f t="shared" si="0"/>
         <v>6.52</v>
       </c>
-      <c r="I22" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>22</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="I23" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="29">
+        <v>23</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="19">
-        <v>3</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" ref="H23" si="3">F23*G23</f>
-        <v>3</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>23</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F24" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24" si="3">F24*G24</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="29">
+        <v>24</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
         <v>2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I25" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>24</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="J25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="29">
+        <v>25</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="20" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>2.4900000000000002</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I26" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4">
-        <f>SUM(H3:H25)</f>
-        <v>48.63</v>
-      </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
+      <c r="J26" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4">
+        <f>SUM(H3:H26)</f>
+        <v>48.93</v>
+      </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="25"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
@@ -1817,52 +1877,59 @@
       <c r="B29" s="6"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="22"/>
-      <c r="H29" s="16"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="22"/>
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17">
-        <f>SUM(H27:H30)+H26</f>
-        <v>48.63</v>
-      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="M9:Q12"/>
-    <mergeCell ref="Q23:U26"/>
+    <mergeCell ref="Q24:U27"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
+    <hyperlink ref="I21" r:id="rId1" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
     <hyperlink ref="I19" r:id="rId2" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
     <hyperlink ref="I6" r:id="rId5"/>
     <hyperlink ref="I7" r:id="rId6"/>
     <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I25" r:id="rId8"/>
+    <hyperlink ref="I26" r:id="rId8"/>
     <hyperlink ref="I14" r:id="rId9"/>
     <hyperlink ref="I16" r:id="rId10"/>
     <hyperlink ref="I17" r:id="rId11"/>
     <hyperlink ref="I18" r:id="rId12"/>
-    <hyperlink ref="I22" r:id="rId13"/>
+    <hyperlink ref="I23" r:id="rId13"/>
     <hyperlink ref="I12" r:id="rId14"/>
     <hyperlink ref="I9" r:id="rId15"/>
     <hyperlink ref="I10" r:id="rId16"/>
     <hyperlink ref="I11" r:id="rId17"/>
-    <hyperlink ref="I23" r:id="rId18"/>
+    <hyperlink ref="I24" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -344,9 +344,6 @@
     <t>Ronewire</t>
   </si>
   <si>
-    <t>Arduino Nano V3 (or compatible)</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/ERG-3SJ160/P16W-3BK-ND/36658</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t xml:space="preserve">Detect Gear </t>
+  </si>
+  <si>
+    <t>Arduino Nano V3 (or compatible) - ATMEGA328P (32K Flash)</t>
   </si>
 </sst>
 </file>
@@ -688,6 +688,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -697,10 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1006,13 +1006,13 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" customWidth="1"/>
@@ -1061,18 +1061,18 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>77</v>
@@ -1092,12 +1092,12 @@
         <v>58</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>115</v>
+      <c r="A4" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1122,14 +1122,14 @@
         <v>0.59</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -1153,14 +1153,14 @@
         <v>1.89</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -1184,14 +1184,14 @@
         <v>0.45</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -1215,14 +1215,14 @@
         <v>0.45</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -1246,15 +1246,15 @@
         <v>0.31</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>116</v>
+      <c r="A9" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="B9" s="29">
         <v>8</v>
@@ -1279,21 +1279,21 @@
         <v>0.23</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="29">
         <v>9</v>
       </c>
@@ -1317,19 +1317,19 @@
         <v>0.8</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="29">
         <v>10</v>
       </c>
@@ -1353,19 +1353,19 @@
         <v>1.06</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="29">
         <v>11</v>
       </c>
@@ -1389,19 +1389,19 @@
         <v>0.18</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="29">
         <v>12</v>
       </c>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>118</v>
+      <c r="A14" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -1456,14 +1456,14 @@
         <v>1.86</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -1488,12 +1488,12 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="29">
         <v>15</v>
@@ -1518,15 +1518,15 @@
         <v>2</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>156</v>
+      <c r="A17" s="40" t="s">
+        <v>155</v>
       </c>
       <c r="B17" s="33">
         <v>16</v>
@@ -1551,14 +1551,14 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="33">
         <v>17</v>
       </c>
@@ -1582,14 +1582,14 @@
         <v>1</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="29">
@@ -1618,19 +1618,19 @@
         <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="29">
         <v>19</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>105</v>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>117</v>
+      <c r="A21" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -1661,7 +1661,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>104</v>
@@ -1680,11 +1680,11 @@
         <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>153</v>
+      <c r="A23" s="40" t="s">
+        <v>152</v>
       </c>
       <c r="B23" s="29">
         <v>22</v>
@@ -1737,18 +1737,18 @@
         <v>6.52</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="29">
         <v>23</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="19"/>
@@ -1759,66 +1759,66 @@
         <v>3</v>
       </c>
       <c r="G24" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" ref="H24" si="3">F24*G24</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" s="27" t="s">
         <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="29">
         <v>24</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>142</v>
+      <c r="C25" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
       </c>
       <c r="G25" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
+        <v>143</v>
+      </c>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="29">
         <v>25</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="36" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="5"/>
@@ -1839,29 +1839,29 @@
         <v>94</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
+        <v>129</v>
+      </c>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="4">
         <f>SUM(H3:H26)</f>
-        <v>48.93</v>
-      </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
+        <v>61.93</v>
+      </c>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -1894,10 +1894,10 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="11475" windowHeight="5325"/>
   </bookViews>
   <sheets>
-    <sheet name="Gen2" sheetId="2" r:id="rId1"/>
-    <sheet name="Gen1 (OBSOLETE)" sheetId="1" r:id="rId2"/>
+    <sheet name="V3" sheetId="3" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
+    <sheet name="V1 (OBSOLETE)" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -489,6 +490,30 @@
   </si>
   <si>
     <t>Arduino Nano V3 (or compatible) - ATMEGA328P (32K Flash)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/RP1085C/RP1085C-ND/2570599</t>
+  </si>
+  <si>
+    <t>DIGIKEY: RP1085C-ND</t>
+  </si>
+  <si>
+    <t>Waterproof Enclosure (Box) to hold all components</t>
+  </si>
+  <si>
+    <t>Stromputer V3 PCB</t>
+  </si>
+  <si>
+    <t>http://www.stromtrooper.com/group-buys-stromtrooper-inventors-product-showcase/97258-stromputer-pcb-group-buy.html</t>
+  </si>
+  <si>
+    <t>http://www.hammondmfg.com/jpeg/RP1085C_B.jpg</t>
+  </si>
+  <si>
+    <t>Also wires (e.g. 18AWG) were not taken into account</t>
+  </si>
+  <si>
+    <t>Take into account some shipping costs - ~$10-$15 (For US)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +524,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +602,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -644,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -692,6 +725,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -701,6 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1005,7 +1042,946 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
+        <f>F3*G3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H26" si="0">F4*G4</f>
+        <v>0.59</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.89</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="8">
+        <f>F6*G6</f>
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="H9" s="8">
+        <f>F9*G9</f>
+        <v>0.23</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="29">
+        <v>9</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="8">
+        <f>F10*G10</f>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="29">
+        <v>10</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="29">
+        <v>11</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="H12" s="8">
+        <f>F12*G12</f>
+        <v>0.18</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="29">
+        <v>12</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="8">
+        <f>F13*G13</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="8">
+        <f>F15*G15</f>
+        <v>0.15</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="29">
+        <v>15</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <f>F16*G16</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="33">
+        <v>16</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17:H18" si="1">F17*G17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="33">
+        <v>17</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="29">
+        <v>18</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="29">
+        <v>19</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="8">
+        <f>F20*G20</f>
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H22" s="8">
+        <f>F22*G22</f>
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="29">
+        <v>22</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8.57</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>8.57</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="29">
+        <v>23</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>3</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="29">
+        <v>24</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>9</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="29">
+        <v>25</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4">
+        <f>SUM(H3:H26)</f>
+        <v>66.489999999999995</v>
+      </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="M9:Q12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I21" r:id="rId1" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
+    <hyperlink ref="I19" r:id="rId2" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I14" r:id="rId8"/>
+    <hyperlink ref="I16" r:id="rId9"/>
+    <hyperlink ref="I17" r:id="rId10"/>
+    <hyperlink ref="I18" r:id="rId11"/>
+    <hyperlink ref="I12" r:id="rId12"/>
+    <hyperlink ref="I9" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="I24" r:id="rId16"/>
+    <hyperlink ref="O26" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +2072,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6">
@@ -1129,7 +2105,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -1160,7 +2136,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -1191,7 +2167,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -1222,7 +2198,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -1253,7 +2229,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="29">
@@ -1284,16 +2260,16 @@
       <c r="J9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="29">
         <v>9</v>
       </c>
@@ -1322,14 +2298,14 @@
       <c r="J10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="29">
         <v>10</v>
       </c>
@@ -1358,14 +2334,14 @@
       <c r="J11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="29">
         <v>11</v>
       </c>
@@ -1394,14 +2370,14 @@
       <c r="J12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="29">
         <v>12</v>
       </c>
@@ -1430,7 +2406,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="6">
@@ -1463,7 +2439,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -1525,7 +2501,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="33">
@@ -1558,7 +2534,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="33">
         <v>17</v>
       </c>
@@ -1589,7 +2565,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="29">
@@ -1622,7 +2598,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="29">
         <v>19</v>
       </c>
@@ -1651,7 +2627,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="6">
@@ -1684,7 +2660,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -1713,7 +2689,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="29">
@@ -1744,7 +2720,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="29">
         <v>23</v>
       </c>
@@ -1771,16 +2747,16 @@
       <c r="J24" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="Q24" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="29">
         <v>24</v>
       </c>
@@ -1807,14 +2783,14 @@
       <c r="J25" t="s">
         <v>143</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="29">
         <v>25</v>
       </c>
@@ -1841,11 +2817,11 @@
       <c r="J26" t="s">
         <v>129</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
@@ -1857,11 +2833,11 @@
         <f>SUM(H3:H26)</f>
         <v>61.93</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -1936,7 +2912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="11475" windowHeight="5325"/>
   </bookViews>
   <sheets>
-    <sheet name="V3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="V2" sheetId="2" r:id="rId2"/>
     <sheet name="V1 (OBSOLETE)" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="440">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -492,28 +492,850 @@
     <t>Arduino Nano V3 (or compatible) - ATMEGA328P (32K Flash)</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/RP1085C/RP1085C-ND/2570599</t>
-  </si>
-  <si>
-    <t>DIGIKEY: RP1085C-ND</t>
-  </si>
-  <si>
-    <t>Waterproof Enclosure (Box) to hold all components</t>
-  </si>
-  <si>
-    <t>Stromputer V3 PCB</t>
-  </si>
-  <si>
-    <t>http://www.stromtrooper.com/group-buys-stromtrooper-inventors-product-showcase/97258-stromputer-pcb-group-buy.html</t>
-  </si>
-  <si>
-    <t>http://www.hammondmfg.com/jpeg/RP1085C_B.jpg</t>
-  </si>
-  <si>
-    <t>Also wires (e.g. 18AWG) were not taken into account</t>
-  </si>
-  <si>
-    <t>Take into account some shipping costs - ~$10-$15 (For US)</t>
+    <t>OPTIONAL - ALTERNATIVE</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>LED RGB WP154</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>WP154A4SUREQBFZGC</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>754-1615-ND</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>LM358 MSOP8 DGK Non Comp Side</t>
+  </si>
+  <si>
+    <t>MSOP8 DGK</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>PCF8574T SOIC16W MS-013</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>ADC/DAC I2C extender</t>
+  </si>
+  <si>
+    <t>PCF8591 SOIC16W</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>IO I2C Extender</t>
+  </si>
+  <si>
+    <t>RES 0805</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERA-6AED102V</t>
+  </si>
+  <si>
+    <t>667-ERA-6AED102V</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Rled1 Alt</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Rled2 Alt</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Rled3 Alt</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Rled4 Alt</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Rled5 Alt</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Rled6 Alt</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>Rled7 Alt</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>CRCW08054K70JNEA</t>
+  </si>
+  <si>
+    <t>71-CRCW0805J-4.7K-E3</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R1wire Alt</t>
+  </si>
+  <si>
+    <t>ERJ-6GEYJ472V</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>Ri2c1 Alt</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>Ri2c2 Alt</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>ERJ-6GEYJ103V</t>
+  </si>
+  <si>
+    <t>667-ERJ-6GEYJ103V</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Rcds Alt</t>
+  </si>
+  <si>
+    <t>12.1k</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1212V</t>
+  </si>
+  <si>
+    <t>P12.1KCCT-ND</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>ERJ-6GEYJ223V</t>
+  </si>
+  <si>
+    <t>P22KACT-ND</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>36.5k</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF3652V</t>
+  </si>
+  <si>
+    <t>P36.5KCCT-ND</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>332k</t>
+  </si>
+  <si>
+    <t>ERA-6AEB3323V</t>
+  </si>
+  <si>
+    <t>667-ERA-6AEB3323V</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>Rbatt1 Alt</t>
+  </si>
+  <si>
+    <t>499k</t>
+  </si>
+  <si>
+    <t>ERA-6AEB4993V</t>
+  </si>
+  <si>
+    <t>667-ERA-6AEB4993V</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Rgps1 Alt</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Rgps2 Alt</t>
+  </si>
+  <si>
+    <t>953k</t>
+  </si>
+  <si>
+    <t>ERA-6AED9533V</t>
+  </si>
+  <si>
+    <t>667-ERA-6AED9533V</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Rbatt2 Alt</t>
+  </si>
+  <si>
+    <t>RES 0805 Non Comp Side</t>
+  </si>
+  <si>
+    <t>R39 R40 R41 R42</t>
+  </si>
+  <si>
+    <t>Si2304BDS MOSFET</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>SI2304BDS-T1-GE3</t>
+  </si>
+  <si>
+    <t>SI2304BDS-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>LT1776 SO8N</t>
+  </si>
+  <si>
+    <t>Linear Tech</t>
+  </si>
+  <si>
+    <t>LT1776CS8#PBF</t>
+  </si>
+  <si>
+    <t>LT1776CS8#PBF-ND</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Switching voltage regulator</t>
+  </si>
+  <si>
+    <t>MBRS1100</t>
+  </si>
+  <si>
+    <t>MBRS1100TRPBF</t>
+  </si>
+  <si>
+    <t>MBRS1100TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Schottky Rectifier (switching regulator)</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>1/8W Resistor</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>Stackpole</t>
+  </si>
+  <si>
+    <t>CF18JT1K00</t>
+  </si>
+  <si>
+    <t>CF18JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>Rled7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor - Optional, not supported as of V2, but will be supported in a future firmware </t>
+  </si>
+  <si>
+    <t>DSCV</t>
+  </si>
+  <si>
+    <t>EEU-FM1H220</t>
+  </si>
+  <si>
+    <t>P12927-ND</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Capacitor (Switching Regulator)</t>
+  </si>
+  <si>
+    <t>CAP 0805</t>
+  </si>
+  <si>
+    <t>2200 pF</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM2165C1H222JA01D</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>2.2 uF</t>
+  </si>
+  <si>
+    <t>GRM21BF51A225ZA01L</t>
+  </si>
+  <si>
+    <t>490-1743-1-ND</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>100 pF</t>
+  </si>
+  <si>
+    <t>GRM2165C1H101JA01D</t>
+  </si>
+  <si>
+    <t>490-1615-1-ND</t>
+  </si>
+  <si>
+    <t>C7 C9</t>
+  </si>
+  <si>
+    <t>Ind Bourns SDR1005</t>
+  </si>
+  <si>
+    <t>100 uH</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SDR1005-101KL</t>
+  </si>
+  <si>
+    <t>SDR1005-101KLCT-ND</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Inductor (Switching Regulator)</t>
+  </si>
+  <si>
+    <t>CAPP Pan 8 mm body</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>ECA-1EHG221</t>
+  </si>
+  <si>
+    <t>P5541-ND</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>1/2W Resistor</t>
+  </si>
+  <si>
+    <t>R33 R36</t>
+  </si>
+  <si>
+    <t>Generic Voltage Divider *Unused*</t>
+  </si>
+  <si>
+    <t>0.1 uF</t>
+  </si>
+  <si>
+    <t>C6 C11</t>
+  </si>
+  <si>
+    <t>Capacitor - PCF8591/PCF8574</t>
+  </si>
+  <si>
+    <t>CAP 0805 Non Comp Side</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Capacitor (OP-AMP)</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Manuf</t>
+  </si>
+  <si>
+    <t>Manuf Part No</t>
+  </si>
+  <si>
+    <t>Distrib</t>
+  </si>
+  <si>
+    <t>Distrib Part No</t>
+  </si>
+  <si>
+    <t>PCB Ref Name</t>
+  </si>
+  <si>
+    <t>Schematic Ref Name</t>
+  </si>
+  <si>
+    <t>Cost Per Unit</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Nano V3 ATMEGA 328 </t>
+  </si>
+  <si>
+    <t>Amazon or Ebay</t>
+  </si>
+  <si>
+    <t>ASIN: B00ASSPI60</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Iduino is a tested 100% clone of Arduino Nano</t>
+  </si>
+  <si>
+    <t>10 Pin Header 18 AWG</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CONN1</t>
+  </si>
+  <si>
+    <t>Header should come with Iduino</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>Rled1</t>
+  </si>
+  <si>
+    <t>LED Resistor</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>Rled2</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Rled3</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>Rled4</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>Rled5</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>Rled6</t>
+  </si>
+  <si>
+    <t>CF18JT4K70</t>
+  </si>
+  <si>
+    <t>CF18JT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R1wire</t>
+  </si>
+  <si>
+    <t>OneWire Pullup Resistor</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>Ri2c1</t>
+  </si>
+  <si>
+    <t>I2C Pullup Resistor</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>Ri2c2</t>
+  </si>
+  <si>
+    <t>CF18JT10K0</t>
+  </si>
+  <si>
+    <t>CF18JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Resistor (Voltage Divider)</t>
+  </si>
+  <si>
+    <t>1/2W Mil Spec Resistor</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>CMF55953K00BEEB</t>
+  </si>
+  <si>
+    <t>CMF953KHBCT-ND</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>CMF55332K00BEEB</t>
+  </si>
+  <si>
+    <t>CMF332KHBCT-ND</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>CMF55499K00BEEB</t>
+  </si>
+  <si>
+    <t>CMF499KHBCT-ND</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Capacitor (Linear Regulator)</t>
+  </si>
+  <si>
+    <t>CAP TDK Cer Radial</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>0.47uF</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>FK26X7R1H474K</t>
+  </si>
+  <si>
+    <t>445-2870-ND</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CAPP Pan AL 5 mm body</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>DS18B20-TO92</t>
+  </si>
+  <si>
+    <t>Maxim Integrated</t>
+  </si>
+  <si>
+    <t>DS18B20+T&amp;R</t>
+  </si>
+  <si>
+    <t>DS18B20+T&amp;RCT-ND</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>I2C Digital Temperature Sensor</t>
+  </si>
+  <si>
+    <t>LCD 16x2 NHD</t>
+  </si>
+  <si>
+    <t>NHD</t>
+  </si>
+  <si>
+    <t>NHD-0216K3Z-FL-GBW-V3</t>
+  </si>
+  <si>
+    <t>NHD-0216K3Z-FL-GBW-V3-ND</t>
+  </si>
+  <si>
+    <t>LCD1</t>
+  </si>
+  <si>
+    <t>LCD (I2C)</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>C503B-BCS-CV0Z0461</t>
+  </si>
+  <si>
+    <t>C503B-BCS-CV0Z0461-ND</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>BLUE LED - Gear 6</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>C503B-GCN-CY0C079</t>
+  </si>
+  <si>
+    <t>C503B-GCN-CY0C0791-ND</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>GREEN LED - Gear 1</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Lumex Opto</t>
+  </si>
+  <si>
+    <t>SSL-LX5093YT</t>
+  </si>
+  <si>
+    <t>67-1117-ND</t>
+  </si>
+  <si>
+    <t>LED2 LED3</t>
+  </si>
+  <si>
+    <t>YELLOW LED - Gear 2,3</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>C503B-WAN-CCACB151</t>
+  </si>
+  <si>
+    <t>C503B-WAN-CCACB151-ND</t>
+  </si>
+  <si>
+    <t>LED4 LED5</t>
+  </si>
+  <si>
+    <t>WHITE LED - Gear 4,5</t>
+  </si>
+  <si>
+    <t>LM2940T-5.0</t>
+  </si>
+  <si>
+    <t>T03B</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>LM2940T-50</t>
+  </si>
+  <si>
+    <t>LM2940T-5.0-ND</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>12V-&gt;5V linear voltage regulator</t>
+  </si>
+  <si>
+    <t>3W Resistor</t>
+  </si>
+  <si>
+    <t>ERG-3SJ160</t>
+  </si>
+  <si>
+    <t>P16W-3BK-ND</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>Current Limiter Resistor, Linear Regulator</t>
+  </si>
+  <si>
+    <t>PDV-P8001</t>
+  </si>
+  <si>
+    <t>Advanced Photonix</t>
+  </si>
+  <si>
+    <t>PDV-P8001-ND</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>Photo sensor</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>RP1085C</t>
+  </si>
+  <si>
+    <t>RP1085C-ND</t>
+  </si>
+  <si>
+    <t>Water Proof Clear Top Enclosure</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Custom PCB</t>
+  </si>
+  <si>
+    <t>Stromtrooper</t>
+  </si>
+  <si>
+    <t>$5 raw cost + $6 shipping</t>
   </si>
 </sst>
 </file>
@@ -524,7 +1346,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,16 +1424,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +1462,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -677,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -726,18 +1558,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1040,940 +1886,2424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3">
+        <f>K2*I2</f>
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L30" si="0">K3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>343</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>351</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="M13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>362</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8">
-        <f>F3*G3</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H26" si="0">F4*G4</f>
-        <v>0.59</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="0"/>
-        <v>1.89</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="28" t="s">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="K17" s="3">
         <v>0.45</v>
       </c>
-      <c r="H6" s="8">
-        <f>F6*G6</f>
+      <c r="L17" s="3">
+        <f>K17*I17</f>
         <v>0.45</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="M17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="6">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="K18" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="L18" s="3">
+        <f>K18*I18</f>
+        <v>0.48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="K19" s="3">
         <v>0.31</v>
       </c>
-      <c r="H8" s="8">
+      <c r="L19" s="3">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="29">
-        <v>8</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="H9" s="8">
-        <f>F9*G9</f>
-        <v>0.23</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="29">
-        <v>9</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="M19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>382</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>4.51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>19.75</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>19.75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>400</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" t="s">
+        <v>405</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>406</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="8">
-        <f>F10*G10</f>
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="29">
-        <v>10</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="K24" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>411</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="I25">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="K25" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="0"/>
-        <v>1.06</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="29">
-        <v>11</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.18</v>
-      </c>
-      <c r="H12" s="8">
-        <f>F12*G12</f>
-        <v>0.18</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="29">
-        <v>12</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="10">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H13" s="8">
-        <f>F13*G13</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>0.92</v>
+      </c>
+      <c r="M25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="M26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="49">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="M27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" t="s">
+        <v>426</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="K28" s="3">
         <v>1.86</v>
       </c>
-      <c r="H14" s="8">
+      <c r="L28" s="3">
         <f t="shared" si="0"/>
         <v>1.86</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H15" s="8">
-        <f>F15*G15</f>
-        <v>0.15</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="29">
-        <v>15</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="12">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <f>F16*G16</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="33">
-        <v>16</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" ref="H17:H18" si="1">F17*G17</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="33">
-        <v>17</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="29">
-        <v>18</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>10</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="29">
-        <v>19</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H20" s="8">
-        <f>F20*G20</f>
-        <v>0.3</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="6">
-        <v>21</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="H22" s="8">
-        <f>F22*G22</f>
-        <v>0.15</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="29">
-        <v>22</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="M28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>434</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
         <v>8.57</v>
       </c>
-      <c r="H23" s="8">
+      <c r="L29" s="3">
         <f t="shared" si="0"/>
         <v>8.57</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="M29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F30" t="s">
+        <v>438</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>11</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="45"/>
+      <c r="K31" t="s">
+        <v>436</v>
+      </c>
+      <c r="L31" s="17">
+        <f>SUM(L2:L30)</f>
+        <v>69.460000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="29">
-        <v>23</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="19">
-        <v>3</v>
-      </c>
-      <c r="G24" s="8">
-        <v>3</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q24" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="29">
-        <v>24</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>9</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="29">
-        <v>25</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="H35" s="43"/>
+      <c r="I35" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="27" t="s">
+      <c r="J35" s="43">
+        <v>1</v>
+      </c>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="J26" t="s">
-        <v>129</v>
-      </c>
-      <c r="O26" s="27" t="s">
+      <c r="C36" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4">
-        <f>SUM(H3:H26)</f>
-        <v>66.489999999999995</v>
-      </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="43" t="s">
+      <c r="D36" s="43"/>
+      <c r="E36" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="G36" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="43">
+        <v>1</v>
+      </c>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="3"/>
+      <c r="N36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="43">
+        <v>1</v>
+      </c>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" s="43">
+        <v>1</v>
+      </c>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="3"/>
+      <c r="N38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="43">
+        <v>1</v>
+      </c>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="3"/>
+      <c r="N39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="43">
+        <v>1</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="L40" s="43"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="J41" s="43">
+        <v>1</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" s="43"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="43">
+        <v>1</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="L42" s="43"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="43">
+        <v>1</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="J45" s="43">
+        <v>1</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="J46" s="43">
+        <v>1</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="J47" s="43">
+        <v>1</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" s="43">
+        <v>1</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="J49" s="43">
+        <v>1</v>
+      </c>
+      <c r="K49" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J50" s="43">
+        <v>1</v>
+      </c>
+      <c r="K50" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" s="43">
+        <v>1</v>
+      </c>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="43">
+        <v>1</v>
+      </c>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="J53" s="43">
+        <v>1</v>
+      </c>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J54" s="43">
+        <v>1</v>
+      </c>
+      <c r="K54" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="J55" s="43">
+        <v>1</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" s="43">
+        <v>1</v>
+      </c>
+      <c r="K56" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="J57" s="43">
+        <v>1</v>
+      </c>
+      <c r="K57" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+    </row>
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J58" s="43">
+        <v>4</v>
+      </c>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I59" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="J59" s="43">
+        <v>1</v>
+      </c>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="I60" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="J60" s="43">
+        <v>1</v>
+      </c>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="3"/>
+      <c r="N60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="I61" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J61" s="43">
+        <v>1</v>
+      </c>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="3"/>
+      <c r="N61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="J62" s="43">
+        <v>1</v>
+      </c>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="J63" s="43">
+        <v>1</v>
+      </c>
+      <c r="K63" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="L63" s="43">
+        <v>0.09</v>
+      </c>
+      <c r="M63" s="3">
+        <f>L63*J63</f>
+        <v>0.09</v>
+      </c>
+      <c r="N63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="43"/>
+      <c r="C64" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="J64" s="43">
+        <v>1</v>
+      </c>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="3"/>
+      <c r="N64" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J65" s="43">
+        <v>1</v>
+      </c>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="3"/>
+      <c r="N65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="J66" s="43">
+        <v>1</v>
+      </c>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="3"/>
+      <c r="N66" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="J67" s="43">
+        <v>2</v>
+      </c>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="3"/>
+      <c r="N67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J68" s="43">
+        <v>1</v>
+      </c>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="3"/>
+      <c r="N68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I69" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J69" s="43">
+        <v>1</v>
+      </c>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="3">
+        <f>L69*J69</f>
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J70" s="43">
+        <v>2</v>
+      </c>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="3">
+        <f>L70*J70</f>
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="J71" s="43">
+        <v>2</v>
+      </c>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="3">
+        <f>L71*J71</f>
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" s="43">
+        <v>1</v>
+      </c>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="3">
+        <f>L72*J72</f>
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="M9:Q12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="1">
+    <mergeCell ref="A35:A59"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I21" r:id="rId1" location="ht_2092wt_1163" display="http://www.ebay.com/itm/1-PCS-DS18B20-18B20-Thermometer-Temperature-Sensor-Dalla-/170750980342?pt=LH_DefaultDomain_0&amp;hash=item27c18d30f6 - ht_2092wt_1163"/>
-    <hyperlink ref="I19" r:id="rId2" location="ht_3637wt_1163" display="http://www.ebay.com/itm/IIC-I2C-TWI-1602-Serial-Shield-Modle-LCD-Display-For-Arduino-MEGA-2560-UNO-A004-/251052650605?pt=LH_DefaultDomain_0&amp;hash=item3a73e7706d - ht_3637wt_1163"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I14" r:id="rId8"/>
-    <hyperlink ref="I16" r:id="rId9"/>
-    <hyperlink ref="I17" r:id="rId10"/>
-    <hyperlink ref="I18" r:id="rId11"/>
-    <hyperlink ref="I12" r:id="rId12"/>
-    <hyperlink ref="I9" r:id="rId13"/>
-    <hyperlink ref="I10" r:id="rId14"/>
-    <hyperlink ref="I11" r:id="rId15"/>
-    <hyperlink ref="I24" r:id="rId16"/>
-    <hyperlink ref="O26" r:id="rId17"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2072,7 +4402,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6">
@@ -2105,7 +4435,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -2136,7 +4466,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -2167,7 +4497,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -2198,7 +4528,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -2229,7 +4559,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="29">
@@ -2269,7 +4599,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="29">
         <v>9</v>
       </c>
@@ -2305,7 +4635,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="29">
         <v>10</v>
       </c>
@@ -2341,7 +4671,7 @@
       <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="29">
         <v>11</v>
       </c>
@@ -2377,7 +4707,7 @@
       <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="29">
         <v>12</v>
       </c>
@@ -2406,7 +4736,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="6">
@@ -2439,7 +4769,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -2501,7 +4831,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="33">
@@ -2534,7 +4864,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="33">
         <v>17</v>
       </c>
@@ -2565,7 +4895,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="29">
@@ -2598,7 +4928,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="29">
         <v>19</v>
       </c>
@@ -2627,7 +4957,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="6">
@@ -2660,7 +4990,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -2689,7 +5019,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="29">
@@ -2720,7 +5050,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="29">
         <v>23</v>
       </c>
@@ -2756,7 +5086,7 @@
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="29">
         <v>24</v>
       </c>
@@ -2790,7 +5120,7 @@
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="29">
         <v>25</v>
       </c>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="11475" windowHeight="5325"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="V2" sheetId="2" r:id="rId2"/>
-    <sheet name="V1 (OBSOLETE)" sheetId="1" r:id="rId3"/>
+    <sheet name="V3 (Final)" sheetId="5" r:id="rId1"/>
+    <sheet name="V3 (Full All Options)" sheetId="4" r:id="rId2"/>
+    <sheet name="V2" sheetId="2" r:id="rId3"/>
+    <sheet name="V1 (OBSOLETE)" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="459">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -1332,10 +1333,111 @@
     <t>Custom PCB</t>
   </si>
   <si>
-    <t>Stromtrooper</t>
-  </si>
-  <si>
     <t>$5 raw cost + $6 shipping</t>
+  </si>
+  <si>
+    <t>Stromtrooper/Bigman73</t>
+  </si>
+  <si>
+    <t>Led2</t>
+  </si>
+  <si>
+    <t>Led3,Led4</t>
+  </si>
+  <si>
+    <t>Led5, Led6</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>LCD (I2C). See Note 1 below</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>SainSmart</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>LCD 1602 I2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. There are cheaper LCD modules, e.g. from eBay/Amazon or other internet sources, but they do not support programmatic constast and brightness control. </t>
+  </si>
+  <si>
+    <t>LCD 16x2 I2C</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SainSmart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YwRobot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1602 I2C modules have been certificed to work with the Stromputer firmware, and the firmware now supports them</t>
+    </r>
+  </si>
+  <si>
+    <t>Alternative to NHD LCD Module</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part No</t>
+  </si>
+  <si>
+    <t>Distributer</t>
+  </si>
+  <si>
+    <t>Distributer Part No</t>
+  </si>
+  <si>
+    <t>ASIN: B00813HBEQ</t>
+  </si>
+  <si>
+    <t>Iduino 328</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1448,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,8 +1526,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,8 +1590,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1504,12 +1625,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1557,18 +1694,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1584,8 +1709,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1886,10 +2032,1214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="3">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3">
+        <f>J2*H2</f>
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K30" si="0">J3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>339</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K17" s="3">
+        <f>J17*H17</f>
+        <v>0.45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="K18" s="3">
+        <f>J18*H18</f>
+        <v>0.48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>4.51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.75</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>19.75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>440</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>441</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>442</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="L25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" s="45">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>422</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="L27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" t="s">
+        <v>426</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+      <c r="L28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>8.57</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>8.57</v>
+      </c>
+      <c r="L29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="41"/>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="41"/>
+      <c r="J31" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="K31" s="51">
+        <f>SUM(K2:K30)</f>
+        <v>73.460000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="52" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>450</v>
+      </c>
+      <c r="C36" t="s">
+        <v>446</v>
+      </c>
+      <c r="D36" t="s">
+        <v>448</v>
+      </c>
+      <c r="E36" t="s">
+        <v>447</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" ref="K36" si="1">J36*H36</f>
+        <v>13.5</v>
+      </c>
+      <c r="L36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,7 +3249,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1908,43 +3258,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="42" t="s">
         <v>319</v>
       </c>
     </row>
@@ -1961,7 +3311,7 @@
       <c r="G2" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="41" t="s">
         <v>323</v>
       </c>
       <c r="I2">
@@ -1991,10 +3341,10 @@
       <c r="F3" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="41" t="s">
         <v>327</v>
       </c>
       <c r="I3">
@@ -2033,7 +3383,7 @@
       <c r="G4" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="41" t="s">
         <v>329</v>
       </c>
       <c r="I4">
@@ -2075,7 +3425,7 @@
       <c r="G5" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="41" t="s">
         <v>332</v>
       </c>
       <c r="I5">
@@ -2117,7 +3467,7 @@
       <c r="G6" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="41" t="s">
         <v>334</v>
       </c>
       <c r="I6">
@@ -2159,7 +3509,7 @@
       <c r="G7" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="41" t="s">
         <v>336</v>
       </c>
       <c r="I7">
@@ -2201,7 +3551,7 @@
       <c r="G8" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="41" t="s">
         <v>338</v>
       </c>
       <c r="I8">
@@ -2243,7 +3593,7 @@
       <c r="G9" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="41" t="s">
         <v>340</v>
       </c>
       <c r="I9">
@@ -2285,7 +3635,7 @@
       <c r="G10" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="41" t="s">
         <v>344</v>
       </c>
       <c r="I10">
@@ -2327,7 +3677,7 @@
       <c r="G11" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="41" t="s">
         <v>347</v>
       </c>
       <c r="I11">
@@ -2369,7 +3719,7 @@
       <c r="G12" t="s">
         <v>343</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="41" t="s">
         <v>350</v>
       </c>
       <c r="I12">
@@ -2411,7 +3761,7 @@
       <c r="G13" t="s">
         <v>353</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="41" t="s">
         <v>354</v>
       </c>
       <c r="I13">
@@ -2453,7 +3803,7 @@
       <c r="G14" t="s">
         <v>359</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="41" t="s">
         <v>360</v>
       </c>
       <c r="I14">
@@ -2495,7 +3845,7 @@
       <c r="G15" t="s">
         <v>362</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="41" t="s">
         <v>363</v>
       </c>
       <c r="I15">
@@ -2537,7 +3887,7 @@
       <c r="G16" t="s">
         <v>365</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="41" t="s">
         <v>366</v>
       </c>
       <c r="I16">
@@ -2579,7 +3929,7 @@
       <c r="G17" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="41" t="s">
         <v>367</v>
       </c>
       <c r="I17">
@@ -2621,7 +3971,7 @@
       <c r="G18" t="s">
         <v>374</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="41" t="s">
         <v>375</v>
       </c>
       <c r="I18">
@@ -2663,7 +4013,7 @@
       <c r="G19" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="41" t="s">
         <v>378</v>
       </c>
       <c r="I19">
@@ -2702,7 +4052,7 @@
       <c r="G20" t="s">
         <v>382</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="41" t="s">
         <v>383</v>
       </c>
       <c r="I20">
@@ -2741,7 +4091,7 @@
       <c r="G21" t="s">
         <v>388</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>389</v>
       </c>
       <c r="I21">
@@ -2780,7 +4130,7 @@
       <c r="G22" t="s">
         <v>395</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>396</v>
       </c>
       <c r="I22">
@@ -2819,7 +4169,7 @@
       <c r="G23" t="s">
         <v>400</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>401</v>
       </c>
       <c r="I23">
@@ -2858,7 +4208,7 @@
       <c r="G24" t="s">
         <v>406</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>407</v>
       </c>
       <c r="I24">
@@ -2897,7 +4247,7 @@
       <c r="G25" t="s">
         <v>411</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>412</v>
       </c>
       <c r="I25">
@@ -2933,7 +4283,7 @@
       <c r="G26" t="s">
         <v>418</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>419</v>
       </c>
       <c r="I26">
@@ -2960,7 +4310,7 @@
       <c r="B27" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="45">
         <v>16</v>
       </c>
       <c r="D27" t="s">
@@ -2975,7 +4325,7 @@
       <c r="G27" t="s">
         <v>423</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>424</v>
       </c>
       <c r="I27">
@@ -3014,7 +4364,7 @@
       <c r="G28" t="s">
         <v>428</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>429</v>
       </c>
       <c r="I28">
@@ -3050,7 +4400,7 @@
       <c r="G29" t="s">
         <v>434</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="41"/>
       <c r="I29">
         <v>1</v>
       </c>
@@ -3070,9 +4420,9 @@
         <v>437</v>
       </c>
       <c r="F30" t="s">
-        <v>438</v>
-      </c>
-      <c r="H30" s="45"/>
+        <v>439</v>
+      </c>
+      <c r="H30" s="41"/>
       <c r="I30">
         <v>1</v>
       </c>
@@ -3084,11 +4434,11 @@
         <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H31" s="45"/>
+      <c r="H31" s="41"/>
       <c r="K31" t="s">
         <v>436</v>
       </c>
@@ -3098,900 +4448,900 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44" t="s">
+      <c r="H35" s="39"/>
+      <c r="I35" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="43">
-        <v>1</v>
-      </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
+      <c r="J35" s="39">
+        <v>1</v>
+      </c>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="43">
-        <v>1</v>
-      </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
+      <c r="J36" s="39">
+        <v>1</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J37" s="43">
-        <v>1</v>
-      </c>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
+      <c r="J37" s="39">
+        <v>1</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J38" s="43">
-        <v>1</v>
-      </c>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
+      <c r="J38" s="39">
+        <v>1</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44" t="s">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="43">
-        <v>1</v>
-      </c>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
+      <c r="J39" s="39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="J40" s="43">
-        <v>1</v>
-      </c>
-      <c r="K40" s="43" t="s">
+      <c r="J40" s="39">
+        <v>1</v>
+      </c>
+      <c r="K40" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="L40" s="43"/>
+      <c r="L40" s="39"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="J41" s="43">
-        <v>1</v>
-      </c>
-      <c r="K41" s="43" t="s">
+      <c r="J41" s="39">
+        <v>1</v>
+      </c>
+      <c r="K41" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="L41" s="43"/>
+      <c r="L41" s="39"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="J42" s="43">
-        <v>1</v>
-      </c>
-      <c r="K42" s="43" t="s">
+      <c r="J42" s="39">
+        <v>1</v>
+      </c>
+      <c r="K42" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="L42" s="43"/>
+      <c r="L42" s="39"/>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="J43" s="43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="43" t="s">
+      <c r="J43" s="39">
+        <v>1</v>
+      </c>
+      <c r="K43" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="J44" s="43">
-        <v>1</v>
-      </c>
-      <c r="K44" s="43" t="s">
+      <c r="J44" s="39">
+        <v>1</v>
+      </c>
+      <c r="K44" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J45" s="43">
-        <v>1</v>
-      </c>
-      <c r="K45" s="43" t="s">
+      <c r="J45" s="39">
+        <v>1</v>
+      </c>
+      <c r="K45" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43" t="s">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I46" s="44" t="s">
+      <c r="I46" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="J46" s="43">
-        <v>1</v>
-      </c>
-      <c r="K46" s="43" t="s">
+      <c r="J46" s="39">
+        <v>1</v>
+      </c>
+      <c r="K46" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="44" t="s">
+      <c r="I47" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="J47" s="43">
-        <v>1</v>
-      </c>
-      <c r="K47" s="43" t="s">
+      <c r="J47" s="39">
+        <v>1</v>
+      </c>
+      <c r="K47" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="I48" s="44" t="s">
+      <c r="I48" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="43">
-        <v>1</v>
-      </c>
-      <c r="K48" s="43" t="s">
+      <c r="J48" s="39">
+        <v>1</v>
+      </c>
+      <c r="K48" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="I49" s="44" t="s">
+      <c r="I49" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="J49" s="43">
-        <v>1</v>
-      </c>
-      <c r="K49" s="43" t="s">
+      <c r="J49" s="39">
+        <v>1</v>
+      </c>
+      <c r="K49" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="I50" s="44" t="s">
+      <c r="I50" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="J50" s="43">
-        <v>1</v>
-      </c>
-      <c r="K50" s="43" t="s">
+      <c r="J50" s="39">
+        <v>1</v>
+      </c>
+      <c r="K50" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J51" s="43">
-        <v>1</v>
-      </c>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
+      <c r="J51" s="39">
+        <v>1</v>
+      </c>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J52" s="43">
-        <v>1</v>
-      </c>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
+      <c r="J52" s="39">
+        <v>1</v>
+      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43" t="s">
+      <c r="A53" s="46"/>
+      <c r="B53" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="I53" s="44" t="s">
+      <c r="I53" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="J53" s="43">
-        <v>1</v>
-      </c>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
+      <c r="J53" s="39">
+        <v>1</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H54" s="43" t="s">
+      <c r="H54" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="J54" s="43">
-        <v>1</v>
-      </c>
-      <c r="K54" s="43" t="s">
+      <c r="J54" s="39">
+        <v>1</v>
+      </c>
+      <c r="K54" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="J55" s="43">
-        <v>1</v>
-      </c>
-      <c r="K55" s="43" t="s">
+      <c r="J55" s="39">
+        <v>1</v>
+      </c>
+      <c r="K55" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43" t="s">
+      <c r="D56" s="39"/>
+      <c r="E56" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="43" t="s">
+      <c r="H56" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="I56" s="44" t="s">
+      <c r="I56" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="J56" s="43">
-        <v>1</v>
-      </c>
-      <c r="K56" s="43" t="s">
+      <c r="J56" s="39">
+        <v>1</v>
+      </c>
+      <c r="K56" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H57" s="43" t="s">
+      <c r="H57" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="J57" s="43">
-        <v>1</v>
-      </c>
-      <c r="K57" s="43" t="s">
+      <c r="J57" s="39">
+        <v>1</v>
+      </c>
+      <c r="K57" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
     </row>
     <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="J58" s="43">
+      <c r="J58" s="39">
         <v>4</v>
       </c>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="I59" s="44" t="s">
+      <c r="I59" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="J59" s="43">
-        <v>1</v>
-      </c>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
+      <c r="J59" s="39">
+        <v>1</v>
+      </c>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43" t="s">
+      <c r="D60" s="39"/>
+      <c r="E60" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H60" s="43" t="s">
+      <c r="H60" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="J60" s="43">
-        <v>1</v>
-      </c>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
+      <c r="J60" s="39">
+        <v>1</v>
+      </c>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43" t="s">
+      <c r="D61" s="39"/>
+      <c r="E61" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="I61" s="44" t="s">
+      <c r="I61" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="J61" s="43">
-        <v>1</v>
-      </c>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
+      <c r="J61" s="39">
+        <v>1</v>
+      </c>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="44" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="J62" s="43">
-        <v>1</v>
-      </c>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
+      <c r="J62" s="39">
+        <v>1</v>
+      </c>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="J63" s="43">
-        <v>1</v>
-      </c>
-      <c r="K63" s="43" t="s">
+      <c r="J63" s="39">
+        <v>1</v>
+      </c>
+      <c r="K63" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="L63" s="43">
+      <c r="L63" s="39">
         <v>0.09</v>
       </c>
       <c r="M63" s="3">
@@ -4003,206 +5353,206 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43" t="s">
+      <c r="D64" s="39"/>
+      <c r="E64" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="J64" s="43">
-        <v>1</v>
-      </c>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
+      <c r="J64" s="39">
+        <v>1</v>
+      </c>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
       <c r="M64" s="3"/>
       <c r="N64" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="J65" s="43">
-        <v>1</v>
-      </c>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
+      <c r="J65" s="39">
+        <v>1</v>
+      </c>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
       <c r="M65" s="3"/>
       <c r="N65" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H66" s="43" t="s">
+      <c r="H66" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="J66" s="43">
-        <v>1</v>
-      </c>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
+      <c r="J66" s="39">
+        <v>1</v>
+      </c>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
       <c r="M66" s="3"/>
       <c r="N66" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="J67" s="43">
+      <c r="J67" s="39">
         <v>2</v>
       </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
       <c r="M67" s="3"/>
       <c r="N67" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="J68" s="43">
-        <v>1</v>
-      </c>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
+      <c r="J68" s="39">
+        <v>1</v>
+      </c>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
       <c r="M68" s="3"/>
       <c r="N68" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="G69" s="43" t="s">
+      <c r="G69" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="J69" s="43">
-        <v>1</v>
-      </c>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
+      <c r="J69" s="39">
+        <v>1</v>
+      </c>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
       <c r="M69" s="3">
         <f>L69*J69</f>
         <v>0</v>
@@ -4212,25 +5562,25 @@
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="J70" s="43">
+      <c r="J70" s="39">
         <v>2</v>
       </c>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
       <c r="M70" s="3">
         <f>L70*J70</f>
         <v>0</v>
@@ -4240,27 +5590,27 @@
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43" t="s">
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J71" s="39">
         <v>2</v>
       </c>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
       <c r="M71" s="3">
         <f>L71*J71</f>
         <v>0</v>
@@ -4270,27 +5620,27 @@
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43" t="s">
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="J72" s="43">
-        <v>1</v>
-      </c>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
+      <c r="J72" s="39">
+        <v>1</v>
+      </c>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
       <c r="M72" s="3">
         <f>L72*J72</f>
         <v>0</v>
@@ -4304,14 +5654,15 @@
     <mergeCell ref="A35:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -4402,7 +5753,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6">
@@ -4435,7 +5786,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -4466,7 +5817,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -4497,7 +5848,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -4528,7 +5879,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -4559,7 +5910,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="49" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="29">
@@ -4590,16 +5941,16 @@
       <c r="J9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="29">
         <v>9</v>
       </c>
@@ -4628,14 +5979,14 @@
       <c r="J10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="29">
         <v>10</v>
       </c>
@@ -4664,14 +6015,14 @@
       <c r="J11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="29">
         <v>11</v>
       </c>
@@ -4700,14 +6051,14 @@
       <c r="J12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="29">
         <v>12</v>
       </c>
@@ -4736,7 +6087,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="6">
@@ -4769,7 +6120,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -4831,7 +6182,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="48" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="33">
@@ -4864,7 +6215,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="33">
         <v>17</v>
       </c>
@@ -4895,7 +6246,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="49" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="29">
@@ -4928,7 +6279,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="29">
         <v>19</v>
       </c>
@@ -4957,7 +6308,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="48" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="6">
@@ -4990,7 +6341,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -5019,7 +6370,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="48" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="29">
@@ -5050,7 +6401,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="29">
         <v>23</v>
       </c>
@@ -5077,16 +6428,16 @@
       <c r="J24" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="40" t="s">
+      <c r="Q24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="29">
         <v>24</v>
       </c>
@@ -5113,14 +6464,14 @@
       <c r="J25" t="s">
         <v>143</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="29">
         <v>25</v>
       </c>
@@ -5147,11 +6498,11 @@
       <c r="J26" t="s">
         <v>129</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
@@ -5163,11 +6514,11 @@
         <f>SUM(H3:H26)</f>
         <v>61.93</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -5242,7 +6593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="459">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -1709,6 +1709,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,14 +1728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,40 +2055,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="50" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="E3" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="49" t="s">
         <v>326</v>
       </c>
       <c r="G3" s="41" t="s">
@@ -2840,6 +2840,9 @@
       <c r="H21">
         <v>1</v>
       </c>
+      <c r="I21" t="s">
+        <v>389</v>
+      </c>
       <c r="J21" s="3">
         <v>19.75</v>
       </c>
@@ -3171,17 +3174,17 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G31" s="41"/>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="47">
         <f>SUM(K2:K30)</f>
         <v>73.460000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="48" t="s">
         <v>445</v>
       </c>
     </row>
@@ -4448,7 +4451,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="52" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="39"/>
@@ -4473,7 +4476,7 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="39" t="s">
         <v>162</v>
       </c>
@@ -4507,7 +4510,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="39" t="s">
         <v>170</v>
       </c>
@@ -4530,7 +4533,7 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="39" t="s">
         <v>173</v>
       </c>
@@ -4556,7 +4559,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="39" t="s">
         <v>176</v>
       </c>
@@ -4582,7 +4585,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="39" t="s">
         <v>179</v>
       </c>
@@ -4617,7 +4620,7 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39" t="s">
         <v>159</v>
@@ -4648,7 +4651,7 @@
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39" t="s">
         <v>159</v>
@@ -4679,7 +4682,7 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39" t="s">
         <v>159</v>
@@ -4710,7 +4713,7 @@
       <c r="M43" s="39"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39" t="s">
         <v>159</v>
@@ -4741,7 +4744,7 @@
       <c r="M44" s="39"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39" t="s">
         <v>159</v>
@@ -4772,7 +4775,7 @@
       <c r="M45" s="39"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39" t="s">
         <v>159</v>
@@ -4803,7 +4806,7 @@
       <c r="M46" s="39"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="39" t="s">
         <v>179</v>
       </c>
@@ -4838,7 +4841,7 @@
       <c r="M47" s="39"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39" t="s">
         <v>159</v>
@@ -4869,7 +4872,7 @@
       <c r="M48" s="39"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39" t="s">
         <v>159</v>
@@ -4900,7 +4903,7 @@
       <c r="M49" s="39"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="39" t="s">
         <v>179</v>
       </c>
@@ -4935,7 +4938,7 @@
       <c r="M50" s="39"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="39" t="s">
         <v>179</v>
       </c>
@@ -4968,7 +4971,7 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="39" t="s">
         <v>179</v>
       </c>
@@ -5001,7 +5004,7 @@
       <c r="M52" s="39"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="39" t="s">
         <v>179</v>
       </c>
@@ -5034,7 +5037,7 @@
       <c r="M53" s="39"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="39" t="s">
         <v>179</v>
       </c>
@@ -5069,7 +5072,7 @@
       <c r="M54" s="39"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="39" t="s">
         <v>179</v>
       </c>
@@ -5104,7 +5107,7 @@
       <c r="M55" s="39"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39" t="s">
         <v>159</v>
@@ -5135,7 +5138,7 @@
       <c r="M56" s="39"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="39" t="s">
         <v>179</v>
       </c>
@@ -5170,7 +5173,7 @@
       <c r="M57" s="39"/>
     </row>
     <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="39" t="s">
         <v>242</v>
       </c>
@@ -5193,7 +5196,7 @@
       <c r="M58" s="39"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="39" t="s">
         <v>244</v>
       </c>
@@ -5753,7 +5756,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="6">
@@ -5786,7 +5789,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -5817,7 +5820,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -5848,7 +5851,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -5879,7 +5882,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -5910,7 +5913,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="55" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="29">
@@ -5941,16 +5944,16 @@
       <c r="J9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="29">
         <v>9</v>
       </c>
@@ -5979,14 +5982,14 @@
       <c r="J10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="29">
         <v>10</v>
       </c>
@@ -6015,14 +6018,14 @@
       <c r="J11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="29">
         <v>11</v>
       </c>
@@ -6051,14 +6054,14 @@
       <c r="J12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="29">
         <v>12</v>
       </c>
@@ -6087,7 +6090,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="6">
@@ -6120,7 +6123,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -6182,7 +6185,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="54" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="33">
@@ -6215,7 +6218,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="33">
         <v>17</v>
       </c>
@@ -6246,7 +6249,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="29">
@@ -6279,7 +6282,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="29">
         <v>19</v>
       </c>
@@ -6308,7 +6311,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="54" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="6">
@@ -6341,7 +6344,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -6370,7 +6373,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="54" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="29">
@@ -6401,7 +6404,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="29">
         <v>23</v>
       </c>
@@ -6428,16 +6431,16 @@
       <c r="J24" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="47" t="s">
+      <c r="Q24" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="29">
         <v>24</v>
       </c>
@@ -6464,14 +6467,14 @@
       <c r="J25" t="s">
         <v>143</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="29">
         <v>25</v>
       </c>
@@ -6498,11 +6501,11 @@
       <c r="J26" t="s">
         <v>129</v>
       </c>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
@@ -6514,11 +6517,11 @@
         <f>SUM(H3:H26)</f>
         <v>61.93</v>
       </c>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="461">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>Iduino 328</t>
+  </si>
+  <si>
+    <t>RP1135C</t>
+  </si>
+  <si>
+    <t>RP1135C-ND</t>
   </si>
 </sst>
 </file>
@@ -2034,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,13 +3135,13 @@
         <v>432</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="E29" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29">
@@ -3242,19 +3248,19 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M31"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.5703125" bestFit="1" customWidth="1"/>

--- a/trunk/Project/Stromputer BOM.xlsx
+++ b/trunk/Project/Stromputer BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="11475" windowHeight="5325"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="11475" windowHeight="5325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V3 (Final)" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="462">
   <si>
     <t>Stromputer BOM (Bill Of Materials)</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/C503B-GCN-CY0C0791/C503B-GCN-CY0C0791-ND/1922940</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-search/en/optoelectronics/leds-discrete/524729?k=67-1117-ND</t>
   </si>
   <si>
     <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?WT.z_header=search_go&amp;lang=en&amp;keywords=C503B-WAN-CCACB151-ND&amp;x=11&amp;y=13&amp;cur=USD</t>
@@ -1444,6 +1441,12 @@
   </si>
   <si>
     <t>RP1135C-ND</t>
+  </si>
+  <si>
+    <t>DIGIKEY: 365-1183-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/OVLFY3C7/365-1183-ND/827119</t>
   </si>
 </sst>
 </file>
@@ -2040,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,57 +2065,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="50" t="s">
-        <v>456</v>
-      </c>
       <c r="G1" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="K1" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="L1" s="50" t="s">
         <v>318</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E2" t="s">
         <v>320</v>
       </c>
-      <c r="D2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="41" t="s">
         <v>322</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>323</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2128,30 +2131,30 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" s="49" t="s">
+      <c r="G3" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -2161,36 +2164,36 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>262</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>263</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G4" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>329</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>330</v>
       </c>
       <c r="J4" s="3">
         <v>0.09</v>
@@ -2200,36 +2203,36 @@
         <v>0.09</v>
       </c>
       <c r="L4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>262</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>263</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G5" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>332</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>333</v>
       </c>
       <c r="J5" s="3">
         <v>0.09</v>
@@ -2239,36 +2242,36 @@
         <v>0.09</v>
       </c>
       <c r="L5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
         <v>261</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>262</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>263</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G6" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>334</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>335</v>
       </c>
       <c r="J6" s="3">
         <v>0.09</v>
@@ -2278,36 +2281,36 @@
         <v>0.09</v>
       </c>
       <c r="L6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
         <v>261</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>262</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>263</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G7" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>336</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>337</v>
       </c>
       <c r="J7" s="3">
         <v>0.09</v>
@@ -2317,36 +2320,36 @@
         <v>0.09</v>
       </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
         <v>261</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>262</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>263</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G8" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>338</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>339</v>
       </c>
       <c r="J8" s="3">
         <v>0.09</v>
@@ -2356,36 +2359,36 @@
         <v>0.09</v>
       </c>
       <c r="L8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" t="s">
         <v>261</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>262</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>263</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G9" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>340</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>341</v>
       </c>
       <c r="J9" s="3">
         <v>0.09</v>
@@ -2395,36 +2398,36 @@
         <v>0.09</v>
       </c>
       <c r="L9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>344</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>345</v>
       </c>
       <c r="J10" s="3">
         <v>0.09</v>
@@ -2434,36 +2437,36 @@
         <v>0.09</v>
       </c>
       <c r="L10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="G11" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>347</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>348</v>
       </c>
       <c r="J11" s="3">
         <v>0.09</v>
@@ -2473,36 +2476,36 @@
         <v>0.09</v>
       </c>
       <c r="L11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="G12" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>350</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>351</v>
       </c>
       <c r="J12" s="3">
         <v>0.09</v>
@@ -2512,30 +2515,30 @@
         <v>0.09</v>
       </c>
       <c r="L12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="41" t="s">
         <v>353</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>354</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2551,30 +2554,30 @@
         <v>0.09</v>
       </c>
       <c r="L13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
         <v>356</v>
       </c>
-      <c r="B14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>357</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>360</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2590,30 +2593,30 @@
         <v>1.53</v>
       </c>
       <c r="L14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
         <v>356</v>
       </c>
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" t="s">
-        <v>357</v>
-      </c>
       <c r="D15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="41" t="s">
         <v>362</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>363</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2629,30 +2632,30 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
         <v>356</v>
       </c>
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" t="s">
-        <v>357</v>
-      </c>
       <c r="D16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="41" t="s">
         <v>365</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>366</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2668,30 +2671,30 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="L16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
         <v>294</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s">
         <v>295</v>
       </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="G17" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2707,30 +2710,30 @@
         <v>0.45</v>
       </c>
       <c r="L17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" t="s">
         <v>371</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>372</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="41" t="s">
         <v>374</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>375</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2746,30 +2749,30 @@
         <v>0.48</v>
       </c>
       <c r="L18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" t="s">
         <v>376</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>377</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" t="s">
-        <v>270</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>378</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2785,27 +2788,27 @@
         <v>0.31</v>
       </c>
       <c r="L19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" t="s">
         <v>379</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>380</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="41" t="s">
         <v>382</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>383</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2821,33 +2824,33 @@
         <v>4.51</v>
       </c>
       <c r="L20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" t="s">
         <v>385</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>386</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>389</v>
-      </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J21" s="3">
         <v>19.75</v>
@@ -2857,30 +2860,30 @@
         <v>19.75</v>
       </c>
       <c r="L21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
         <v>391</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>392</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>393</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2896,36 +2899,36 @@
         <v>0.21</v>
       </c>
       <c r="L22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" t="s">
         <v>398</v>
       </c>
-      <c r="C23" t="s">
-        <v>393</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>401</v>
-      </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J23" s="3">
         <v>0.24</v>
@@ -2935,36 +2938,36 @@
         <v>0.24</v>
       </c>
       <c r="L23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" t="s">
         <v>403</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>404</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="41" t="s">
         <v>406</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>407</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J24" s="3">
         <v>0.55000000000000004</v>
@@ -2974,36 +2977,36 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" t="s">
         <v>409</v>
       </c>
-      <c r="C25" t="s">
-        <v>393</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="41" t="s">
         <v>411</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>412</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J25" s="3">
         <v>0.46</v>
@@ -3013,27 +3016,27 @@
         <v>0.92</v>
       </c>
       <c r="L25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" t="s">
         <v>416</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="41" t="s">
         <v>418</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>419</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3049,30 +3052,30 @@
         <v>1.68</v>
       </c>
       <c r="L26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="45">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
+        <v>421</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>424</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3088,27 +3091,27 @@
         <v>0.59</v>
       </c>
       <c r="L27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" t="s">
         <v>426</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D28" t="s">
-        <v>426</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="41" t="s">
         <v>428</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>429</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3124,24 +3127,24 @@
         <v>1.86</v>
       </c>
       <c r="L28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" t="s">
         <v>431</v>
       </c>
-      <c r="C29" t="s">
-        <v>432</v>
-      </c>
       <c r="D29" t="s">
+        <v>458</v>
+      </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="E29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29">
@@ -3155,15 +3158,15 @@
         <v>8.57</v>
       </c>
       <c r="L29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="41"/>
@@ -3181,7 +3184,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G31" s="41"/>
       <c r="J31" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K31" s="47">
         <f>SUM(K2:K30)</f>
@@ -3191,37 +3194,37 @@
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D36" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" t="s">
         <v>446</v>
       </c>
-      <c r="D36" t="s">
-        <v>448</v>
-      </c>
-      <c r="E36" t="s">
-        <v>447</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3234,7 +3237,7 @@
         <v>13.5</v>
       </c>
       <c r="L36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3268,60 +3271,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>314</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>315</v>
       </c>
       <c r="I1" s="42" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
         <v>318</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>321</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="41" t="s">
         <v>322</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>323</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3337,24 +3340,24 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>326</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>327</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3367,39 +3370,39 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>262</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>263</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
         <v>264</v>
       </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" t="s">
-        <v>265</v>
-      </c>
       <c r="H4" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>329</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>330</v>
       </c>
       <c r="K4" s="3">
         <v>0.09</v>
@@ -3409,39 +3412,39 @@
         <v>0.09</v>
       </c>
       <c r="M4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>262</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>263</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
         <v>264</v>
       </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" t="s">
-        <v>265</v>
-      </c>
       <c r="H5" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>332</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>333</v>
       </c>
       <c r="K5" s="3">
         <v>0.09</v>
@@ -3451,39 +3454,39 @@
         <v>0.09</v>
       </c>
       <c r="M5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
         <v>261</v>
       </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>262</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>263</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" t="s">
         <v>264</v>
       </c>
-      <c r="F6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" t="s">
-        <v>265</v>
-      </c>
       <c r="H6" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>334</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>335</v>
       </c>
       <c r="K6" s="3">
         <v>0.09</v>
@@ -3493,39 +3496,39 @@
         <v>0.09</v>
       </c>
       <c r="M6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
         <v>261</v>
       </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>262</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>263</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
         <v>264</v>
       </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" t="s">
-        <v>265</v>
-      </c>
       <c r="H7" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>336</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>337</v>
       </c>
       <c r="K7" s="3">
         <v>0.09</v>
@@ -3535,39 +3538,39 @@
         <v>0.09</v>
       </c>
       <c r="M7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
         <v>261</v>
       </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>262</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>263</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" t="s">
         <v>264</v>
       </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" t="s">
-        <v>265</v>
-      </c>
       <c r="H8" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>338</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>339</v>
       </c>
       <c r="K8" s="3">
         <v>0.09</v>
@@ -3577,39 +3580,39 @@
         <v>0.09</v>
       </c>
       <c r="M8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
         <v>261</v>
       </c>
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>262</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>263</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
         <v>264</v>
       </c>
-      <c r="F9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" t="s">
-        <v>265</v>
-      </c>
       <c r="H9" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>340</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>341</v>
       </c>
       <c r="K9" s="3">
         <v>0.09</v>
@@ -3619,39 +3622,39 @@
         <v>0.09</v>
       </c>
       <c r="M9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
         <v>342</v>
       </c>
-      <c r="F10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>344</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>345</v>
       </c>
       <c r="K10" s="3">
         <v>0.09</v>
@@ -3661,39 +3664,39 @@
         <v>0.09</v>
       </c>
       <c r="M10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" t="s">
         <v>342</v>
       </c>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" t="s">
-        <v>343</v>
-      </c>
       <c r="H11" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>347</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>348</v>
       </c>
       <c r="K11" s="3">
         <v>0.09</v>
@@ -3703,39 +3706,39 @@
         <v>0.09</v>
       </c>
       <c r="M11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
         <v>342</v>
       </c>
-      <c r="F12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" t="s">
-        <v>343</v>
-      </c>
       <c r="H12" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>350</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>351</v>
       </c>
       <c r="K12" s="3">
         <v>0.09</v>
@@ -3745,33 +3748,33 @@
         <v>0.09</v>
       </c>
       <c r="M12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" t="s">
         <v>352</v>
       </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" s="41" t="s">
         <v>353</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>354</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3787,33 +3790,33 @@
         <v>0.09</v>
       </c>
       <c r="M13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
         <v>356</v>
       </c>
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>357</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" t="s">
         <v>358</v>
       </c>
-      <c r="F14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>360</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3829,33 +3832,33 @@
         <v>1.53</v>
       </c>
       <c r="M14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
         <v>356</v>
       </c>
-      <c r="B15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" t="s">
-        <v>357</v>
-      </c>
       <c r="E15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
         <v>361</v>
       </c>
-      <c r="F15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" s="41" t="s">
         <v>362</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>363</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3871,33 +3874,33 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
         <v>356</v>
       </c>
-      <c r="B16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" t="s">
-        <v>357</v>
-      </c>
       <c r="E16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
         <v>364</v>
       </c>
-      <c r="F16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" s="41" t="s">
         <v>365</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>366</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -3913,33 +3916,33 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="M16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
         <v>294</v>
       </c>
-      <c r="B17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
         <v>295</v>
       </c>
-      <c r="D17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
         <v>296</v>
       </c>
-      <c r="F17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" t="s">
-        <v>297</v>
-      </c>
       <c r="H17" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3955,33 +3958,33 @@
         <v>0.45</v>
       </c>
       <c r="M17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" t="s">
         <v>369</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>370</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>371</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>372</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
         <v>373</v>
       </c>
-      <c r="F18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" s="41" t="s">
         <v>374</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>375</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3997,33 +4000,33 @@
         <v>0.48</v>
       </c>
       <c r="M18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
         <v>376</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
         <v>269</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="41" t="s">
         <v>377</v>
-      </c>
-      <c r="D19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>378</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4039,30 +4042,30 @@
         <v>0.31</v>
       </c>
       <c r="M19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" t="s">
         <v>379</v>
       </c>
-      <c r="B20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>380</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
         <v>381</v>
       </c>
-      <c r="F20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" s="41" t="s">
         <v>382</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>383</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4078,30 +4081,30 @@
         <v>4.51</v>
       </c>
       <c r="M20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
         <v>385</v>
       </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>386</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
         <v>387</v>
       </c>
-      <c r="F21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" s="41" t="s">
         <v>388</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>389</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4114,33 +4117,33 @@
         <v>19.75</v>
       </c>
       <c r="M21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" t="s">
         <v>391</v>
       </c>
-      <c r="B22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>392</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>393</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
         <v>394</v>
       </c>
-      <c r="F22" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4153,33 +4156,33 @@
         <v>0.21</v>
       </c>
       <c r="M22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E23" t="s">
         <v>398</v>
       </c>
-      <c r="D23" t="s">
-        <v>393</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
         <v>399</v>
       </c>
-      <c r="F23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" s="41" t="s">
         <v>400</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>401</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4192,33 +4195,33 @@
         <v>0.24</v>
       </c>
       <c r="M23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" t="s">
         <v>403</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>404</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
         <v>405</v>
       </c>
-      <c r="F24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" s="41" t="s">
         <v>406</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>407</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -4231,33 +4234,33 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" t="s">
+        <v>392</v>
+      </c>
+      <c r="E25" t="s">
         <v>409</v>
       </c>
-      <c r="D25" t="s">
-        <v>393</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" t="s">
         <v>410</v>
       </c>
-      <c r="F25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" s="41" t="s">
         <v>411</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>412</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -4270,30 +4273,30 @@
         <v>0.92</v>
       </c>
       <c r="M25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" t="s">
         <v>414</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>415</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>416</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
         <v>417</v>
       </c>
-      <c r="F26" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" s="41" t="s">
         <v>418</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>419</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4309,33 +4312,33 @@
         <v>1.68</v>
       </c>
       <c r="M26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="45">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
         <v>422</v>
       </c>
-      <c r="F27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>424</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4351,30 +4354,30 @@
         <v>0.59</v>
       </c>
       <c r="M27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>425</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
         <v>426</v>
       </c>
-      <c r="B28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>425</v>
+      </c>
+      <c r="F28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" t="s">
         <v>427</v>
       </c>
-      <c r="E28" t="s">
-        <v>426</v>
-      </c>
-      <c r="F28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" s="41" t="s">
         <v>428</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>429</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -4390,24 +4393,24 @@
         <v>1.86</v>
       </c>
       <c r="M28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" t="s">
         <v>431</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>432</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
         <v>433</v>
-      </c>
-      <c r="F29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" t="s">
-        <v>434</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29">
@@ -4421,15 +4424,15 @@
         <v>8.57</v>
       </c>
       <c r="M29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30">
@@ -4443,13 +4446,13 @@
         <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H31" s="41"/>
       <c r="K31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L31" s="17">
         <f>SUM(L2:L30)</f>
@@ -4458,21 +4461,21 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J35" s="39">
         <v>1</v>
@@ -4484,26 +4487,26 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>162</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>163</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="G36" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="H36" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="I36" s="40" t="s">
         <v>167</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>168</v>
       </c>
       <c r="J36" s="39">
         <v>1</v>
@@ -4512,16 +4515,16 @@
       <c r="L36" s="39"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="39" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>171</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -4529,7 +4532,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
       <c r="I37" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J37" s="39">
         <v>1</v>
@@ -4541,10 +4544,10 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -4552,7 +4555,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
       <c r="I38" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J38" s="39">
         <v>1</v>
@@ -4561,16 +4564,16 @@
       <c r="L38" s="39"/>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -4578,7 +4581,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
       <c r="I39" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J39" s="39">
         <v>1</v>
@@ -4587,40 +4590,40 @@
       <c r="L39" s="39"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="52"/>
       <c r="B40" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="E40" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="39" t="s">
+      <c r="H40" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H40" s="39" t="s">
+      <c r="I40" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="J40" s="39">
+        <v>1</v>
+      </c>
+      <c r="K40" s="39" t="s">
         <v>184</v>
-      </c>
-      <c r="J40" s="39">
-        <v>1</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>185</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="3"/>
@@ -4629,29 +4632,29 @@
       <c r="A41" s="52"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="G41" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="I41" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" s="39">
+        <v>1</v>
+      </c>
+      <c r="K41" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="J41" s="39">
-        <v>1</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>187</v>
       </c>
       <c r="L41" s="39"/>
       <c r="M41" s="3"/>
@@ -4660,29 +4663,29 @@
       <c r="A42" s="52"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="G42" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="I42" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="39">
+        <v>1</v>
+      </c>
+      <c r="K42" s="39" t="s">
         <v>188</v>
-      </c>
-      <c r="J42" s="39">
-        <v>1</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>189</v>
       </c>
       <c r="L42" s="39"/>
       <c r="M42" s="3"/>
@@ -4691,29 +4694,29 @@
       <c r="A43" s="52"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="G43" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G43" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="I43" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="39">
+        <v>1</v>
+      </c>
+      <c r="K43" s="39" t="s">
         <v>190</v>
-      </c>
-      <c r="J43" s="39">
-        <v>1</v>
-      </c>
-      <c r="K43" s="39" t="s">
-        <v>191</v>
       </c>
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
@@ -4722,29 +4725,29 @@
       <c r="A44" s="52"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="G44" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G44" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="I44" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="39">
+        <v>1</v>
+      </c>
+      <c r="K44" s="39" t="s">
         <v>192</v>
-      </c>
-      <c r="J44" s="39">
-        <v>1</v>
-      </c>
-      <c r="K44" s="39" t="s">
-        <v>193</v>
       </c>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
@@ -4753,29 +4756,29 @@
       <c r="A45" s="52"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="G45" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="I45" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="J45" s="39">
+        <v>1</v>
+      </c>
+      <c r="K45" s="39" t="s">
         <v>194</v>
-      </c>
-      <c r="J45" s="39">
-        <v>1</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>195</v>
       </c>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
@@ -4784,29 +4787,29 @@
       <c r="A46" s="52"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="G46" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="I46" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="J46" s="39">
+        <v>1</v>
+      </c>
+      <c r="K46" s="39" t="s">
         <v>196</v>
-      </c>
-      <c r="J46" s="39">
-        <v>1</v>
-      </c>
-      <c r="K46" s="39" t="s">
-        <v>197</v>
       </c>
       <c r="L46" s="39"/>
       <c r="M46" s="39"/>
@@ -4814,34 +4817,34 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
       <c r="B47" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="39" t="s">
+      <c r="H47" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="39" t="s">
+      <c r="I47" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="J47" s="39">
+        <v>1</v>
+      </c>
+      <c r="K47" s="39" t="s">
         <v>201</v>
-      </c>
-      <c r="J47" s="39">
-        <v>1</v>
-      </c>
-      <c r="K47" s="39" t="s">
-        <v>202</v>
       </c>
       <c r="L47" s="39"/>
       <c r="M47" s="39"/>
@@ -4850,29 +4853,29 @@
       <c r="A48" s="52"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="I48" s="40" t="s">
+      <c r="J48" s="39">
+        <v>1</v>
+      </c>
+      <c r="K48" s="39" t="s">
         <v>204</v>
-      </c>
-      <c r="J48" s="39">
-        <v>1</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>205</v>
       </c>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
@@ -4881,29 +4884,29 @@
       <c r="A49" s="52"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I49" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" s="39">
+        <v>1</v>
+      </c>
+      <c r="K49" s="39" t="s">
         <v>206</v>
-      </c>
-      <c r="J49" s="39">
-        <v>1</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>207</v>
       </c>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
@@ -4911,34 +4914,34 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="B50" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" s="39" t="s">
+      <c r="H50" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="G50" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H50" s="39" t="s">
+      <c r="I50" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="J50" s="39">
+        <v>1</v>
+      </c>
+      <c r="K50" s="39" t="s">
         <v>211</v>
-      </c>
-      <c r="J50" s="39">
-        <v>1</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>212</v>
       </c>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
@@ -4946,28 +4949,28 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="52"/>
       <c r="B51" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="39" t="s">
+      <c r="G51" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G51" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H51" s="39" t="s">
+      <c r="I51" s="40" t="s">
         <v>215</v>
-      </c>
-      <c r="I51" s="40" t="s">
-        <v>216</v>
       </c>
       <c r="J51" s="39">
         <v>1</v>
@@ -4979,28 +4982,28 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="52"/>
       <c r="B52" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="39" t="s">
+      <c r="G52" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G52" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="39" t="s">
+      <c r="I52" s="40" t="s">
         <v>219</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>220</v>
       </c>
       <c r="J52" s="39">
         <v>1</v>
@@ -5012,28 +5015,28 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="52"/>
       <c r="B53" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F53" s="39" t="s">
+      <c r="G53" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="39" t="s">
+      <c r="I53" s="40" t="s">
         <v>223</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>224</v>
       </c>
       <c r="J53" s="39">
         <v>1</v>
@@ -5045,34 +5048,34 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="52"/>
       <c r="B54" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="39" t="s">
+      <c r="H54" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H54" s="39" t="s">
+      <c r="I54" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="J54" s="39">
+        <v>1</v>
+      </c>
+      <c r="K54" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="J54" s="39">
-        <v>1</v>
-      </c>
-      <c r="K54" s="39" t="s">
-        <v>229</v>
       </c>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
@@ -5080,34 +5083,34 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="52"/>
       <c r="B55" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F55" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="G55" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="39" t="s">
+      <c r="I55" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="40" t="s">
+      <c r="J55" s="39">
+        <v>1</v>
+      </c>
+      <c r="K55" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="J55" s="39">
-        <v>1</v>
-      </c>
-      <c r="K55" s="39" t="s">
-        <v>234</v>
       </c>
       <c r="L55" s="39"/>
       <c r="M55" s="39"/>
@@ -5116,29 +5119,29 @@
       <c r="A56" s="52"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="G56" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>232</v>
-      </c>
       <c r="I56" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J56" s="39">
+        <v>1</v>
+      </c>
+      <c r="K56" s="39" t="s">
         <v>235</v>
-      </c>
-      <c r="J56" s="39">
-        <v>1</v>
-      </c>
-      <c r="K56" s="39" t="s">
-        <v>236</v>
       </c>
       <c r="L56" s="39"/>
       <c r="M56" s="39"/>
@@ -5146,34 +5149,34 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
       <c r="B57" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="39" t="s">
+      <c r="H57" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="G57" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="39" t="s">
+      <c r="I57" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="I57" s="40" t="s">
+      <c r="J57" s="39">
+        <v>1</v>
+      </c>
+      <c r="K57" s="39" t="s">
         <v>240</v>
-      </c>
-      <c r="J57" s="39">
-        <v>1</v>
-      </c>
-      <c r="K57" s="39" t="s">
-        <v>241</v>
       </c>
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
@@ -5181,10 +5184,10 @@
     <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="52"/>
       <c r="B58" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="39"/>
@@ -5192,7 +5195,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J58" s="39">
         <v>4</v>
@@ -5204,26 +5207,26 @@
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="52"/>
       <c r="B59" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F59" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="G59" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="G59" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="39" t="s">
+      <c r="I59" s="40" t="s">
         <v>247</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>248</v>
       </c>
       <c r="J59" s="39">
         <v>1</v>
@@ -5234,26 +5237,26 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="G60" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="G60" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" s="39" t="s">
+      <c r="I60" s="40" t="s">
         <v>252</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>253</v>
       </c>
       <c r="J60" s="39">
         <v>1</v>
@@ -5262,31 +5265,31 @@
       <c r="L60" s="39"/>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F61" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="G61" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="39" t="s">
+      <c r="I61" s="40" t="s">
         <v>257</v>
-      </c>
-      <c r="I61" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="J61" s="39">
         <v>1</v>
@@ -5295,15 +5298,15 @@
       <c r="L61" s="39"/>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -5311,7 +5314,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J62" s="39">
         <v>1</v>
@@ -5321,34 +5324,34 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="39" t="s">
+      <c r="E63" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="F63" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="G63" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H63" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="G63" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63" s="39" t="s">
+      <c r="I63" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="I63" s="39" t="s">
+      <c r="J63" s="39">
+        <v>1</v>
+      </c>
+      <c r="K63" s="39" t="s">
         <v>266</v>
-      </c>
-      <c r="J63" s="39">
-        <v>1</v>
-      </c>
-      <c r="K63" s="39" t="s">
-        <v>267</v>
       </c>
       <c r="L63" s="39">
         <v>0.09</v>
@@ -5358,29 +5361,29 @@
         <v>0.09</v>
       </c>
       <c r="N63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="39"/>
       <c r="C64" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F64" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="G64" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64" s="39" t="s">
+      <c r="I64" s="39" t="s">
         <v>271</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>272</v>
       </c>
       <c r="J64" s="39">
         <v>1</v>
@@ -5389,33 +5392,33 @@
       <c r="L64" s="39"/>
       <c r="M64" s="3"/>
       <c r="N64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="39" t="s">
+      <c r="E65" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="F65" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="G65" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I65" s="39" t="s">
         <v>277</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>278</v>
       </c>
       <c r="J65" s="39">
         <v>1</v>
@@ -5424,33 +5427,33 @@
       <c r="L65" s="39"/>
       <c r="M65" s="3"/>
       <c r="N65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F66" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="E66" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F66" s="39" t="s">
+      <c r="G66" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="G66" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H66" s="39" t="s">
+      <c r="I66" s="39" t="s">
         <v>281</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>282</v>
       </c>
       <c r="J66" s="39">
         <v>1</v>
@@ -5459,33 +5462,33 @@
       <c r="L66" s="39"/>
       <c r="M66" s="3"/>
       <c r="N66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F67" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="E67" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F67" s="39" t="s">
+      <c r="G67" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="G67" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" s="39" t="s">
+      <c r="I67" s="39" t="s">
         <v>285</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>286</v>
       </c>
       <c r="J67" s="39">
         <v>2</v>
@@ -5494,33 +5497,33 @@
       <c r="L67" s="39"/>
       <c r="M67" s="3"/>
       <c r="N67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="39" t="s">
+      <c r="E68" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="F68" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="F68" s="39" t="s">
+      <c r="G68" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="G68" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" s="39" t="s">
+      <c r="I68" s="39" t="s">
         <v>291</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>292</v>
       </c>
       <c r="J68" s="39">
         <v>1</v>
@@ -5529,33 +5532,33 @@
       <c r="L68" s="39"/>
       <c r="M68" s="3"/>
       <c r="N68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="39" t="s">
+      <c r="E69" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F69" s="39" t="s">
+      <c r="G69" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="G69" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" s="39" t="s">
+      <c r="I69" s="39" t="s">
         <v>297</v>
-      </c>
-      <c r="I69" s="39" t="s">
-        <v>298</v>
       </c>
       <c r="J69" s="39">
         <v>1</v>
@@ -5567,15 +5570,15 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
@@ -5583,7 +5586,7 @@
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
       <c r="I70" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J70" s="39">
         <v>2</v>
@@ -5595,25 +5598,25 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
       <c r="I71" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J71" s="39">
         <v>2</v>
@@ -5625,25 +5628,25 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
       <c r="I72" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J72" s="39">
         <v>1</v>
@@ -5655,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5671,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,18 +5730,18 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>77</v>
@@ -5758,7 +5761,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5791,7 +5794,7 @@
         <v>109</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5822,7 +5825,7 @@
         <v>110</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5853,7 +5856,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5884,7 +5887,7 @@
         <v>112</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5915,7 +5918,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5948,10 +5951,10 @@
         <v>118</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
@@ -5970,23 +5973,23 @@
         <v>85</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>460</v>
       </c>
       <c r="F10" s="10">
         <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="H10" s="8">
         <f>F10*G10</f>
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
@@ -6019,10 +6022,10 @@
         <v>1.06</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="53"/>
@@ -6055,10 +6058,10 @@
         <v>0.18</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
@@ -6092,7 +6095,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6122,10 +6125,10 @@
         <v>1.86</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6154,12 +6157,12 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="29">
         <v>15</v>
@@ -6184,15 +6187,15 @@
         <v>2</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="33">
         <v>16</v>
@@ -6217,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6248,10 +6251,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6284,7 +6287,7 @@
         <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6293,10 +6296,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>105</v>
@@ -6313,7 +6316,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6327,7 +6330,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>104</v>
@@ -6346,7 +6349,7 @@
         <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6375,12 +6378,12 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="29">
         <v>22</v>
@@ -6403,10 +6406,10 @@
         <v>6.52</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -6435,10 +6438,10 @@
         <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R24" s="53"/>
       <c r="S24" s="53"/>
@@ -6451,11 +6454,11 @@
         <v>24</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -6468,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="53"/>
       <c r="R25" s="53"/>
@@ -6505,7 +6508,7 @@
         <v>94</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
@@ -6515,13 +6518,13 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="4">
         <f>SUM(H3:H26)</f>
-        <v>61.93</v>
+        <v>61.51</v>
       </c>
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
@@ -6593,9 +6596,9 @@
     <hyperlink ref="I23" r:id="rId13"/>
     <hyperlink ref="I12" r:id="rId14"/>
     <hyperlink ref="I9" r:id="rId15"/>
-    <hyperlink ref="I10" r:id="rId16"/>
-    <hyperlink ref="I11" r:id="rId17"/>
-    <hyperlink ref="I24" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId16"/>
+    <hyperlink ref="I24" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -6607,7 +6610,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
